--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_11_39.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2295468.827332532</v>
+        <v>2287738.209057173</v>
       </c>
     </row>
     <row r="7">
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>32.90688868792146</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,55 +1379,55 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>1.958590140067713</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H11" t="n">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I11" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1455,49 +1455,49 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="H12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="H12" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I13" t="n">
         <v>39.58387696184059</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="S14" t="n">
+      <c r="Y14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="T14" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>34.86547882798917</v>
       </c>
-      <c r="E15" t="n">
-        <v>39.58387696184059</v>
-      </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="16">
@@ -1762,55 +1762,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>39.58387696184059</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.11090464755657</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>71.11090464755659</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>71.11090464755655</v>
+        <v>71.11090464755658</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>80.73445123473725</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>71.11090464755657</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>80.73445123473725</v>
+        <v>71.11090464755659</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>169.7126327889183</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>42.57275285452379</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>125.7699268683797</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>106.6818087831511</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>116.8818236739133</v>
       </c>
       <c r="F21" t="n">
-        <v>22.76986989423843</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>18.01590778161556</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>159.401471913334</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>185.1781252994872</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>192.0373303679377</v>
+        <v>192.0373303679376</v>
       </c>
       <c r="W21" t="n">
         <v>210.931726379432</v>
       </c>
       <c r="X21" t="n">
-        <v>165.0097284219899</v>
+        <v>165.0097284219898</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>114.6872181457707</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>136.5301345956819</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>97.18840967010598</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.0542312452692</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.8213965706072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,23 +2315,23 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.7699268683797</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>131.9452422068281</v>
@@ -2406,16 +2406,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>38.16211057684293</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>71.47218745500885</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.63337606992744</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>185.1781252994872</v>
       </c>
       <c r="V24" t="n">
-        <v>192.0373303679377</v>
+        <v>192.0373303679376</v>
       </c>
       <c r="W24" t="n">
         <v>210.931726379432</v>
       </c>
       <c r="X24" t="n">
-        <v>165.0097284219899</v>
+        <v>165.0097284219898</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1.592723530816928</v>
       </c>
     </row>
     <row r="25">
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>107.3914735338992</v>
+        <v>107.3914735338994</v>
       </c>
       <c r="W25" t="n">
         <v>241.0142888776591</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>114.6144363799612</v>
       </c>
       <c r="C27" t="n">
         <v>120.7897517184096</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>85.42476989330447</v>
       </c>
       <c r="H27" t="n">
-        <v>60.31669696659032</v>
+        <v>60.31669696659029</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>37.47788558150891</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.09022531995453</v>
+        <v>48.23908688273696</v>
       </c>
       <c r="S27" t="n">
-        <v>119.7644238339317</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>148.2459814249154</v>
       </c>
       <c r="U27" t="n">
-        <v>174.0226348110687</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>199.7762358910134</v>
       </c>
       <c r="X27" t="n">
-        <v>153.8542379335713</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>153.7639485073982</v>
+        <v>14.7170743524843</v>
       </c>
     </row>
     <row r="28">
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.88204685231084</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.0978507670661</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>176.0268421583754</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>234.4002820865847</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>179.6064576911678</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>234.0838601208353</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>225.2319683381395</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>234.9981349397854</v>
+        <v>228.0677061829616</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>52.2903498722397</v>
+        <v>52.29034987223972</v>
       </c>
       <c r="C30" t="n">
-        <v>58.4656652106881</v>
+        <v>58.46566521068812</v>
       </c>
       <c r="D30" t="n">
-        <v>33.20223178701112</v>
+        <v>33.20223178701113</v>
       </c>
       <c r="E30" t="n">
-        <v>43.40224667777331</v>
+        <v>43.40224667777332</v>
       </c>
       <c r="F30" t="n">
-        <v>30.82637861575624</v>
+        <v>30.82637861575625</v>
       </c>
       <c r="G30" t="n">
         <v>23.10068338558301</v>
@@ -2919,10 +2919,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>57.44033732621021</v>
+        <v>57.4403373262102</v>
       </c>
       <c r="T30" t="n">
-        <v>85.92189491719397</v>
+        <v>85.92189491719398</v>
       </c>
       <c r="U30" t="n">
         <v>111.6985483033472</v>
@@ -2934,10 +2934,10 @@
         <v>137.452149383292</v>
       </c>
       <c r="X30" t="n">
-        <v>91.53015142584984</v>
+        <v>91.53015142584985</v>
       </c>
       <c r="Y30" t="n">
-        <v>91.43986199967672</v>
+        <v>91.43986199967674</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>65.58914640430966</v>
+        <v>65.58914640430967</v>
       </c>
       <c r="C31" t="n">
-        <v>53.0039873210002</v>
+        <v>53.00398732100021</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.99696885217585</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>53.74814558083112</v>
+        <v>53.74814558083114</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T31" t="n">
         <v>113.7027556506539</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0761955788632</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>137.8948095462003</v>
+        <v>137.8948095462004</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2801645589633</v>
+        <v>172.2801645589634</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>18.16522174685779</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>192.4414220194396</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>240.4402078430553</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.8594666780458</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>225.2319683381395</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>35.62628416352204</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>43.40224667777331</v>
       </c>
       <c r="F33" t="n">
-        <v>30.82637861575648</v>
+        <v>30.82637861575624</v>
       </c>
       <c r="G33" t="n">
         <v>23.100683385583</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>65.58914640430966</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>53.0039873210002</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>32.19112886894153</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>31.17821424530361</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>53.74814558083112</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.98433872981194</v>
       </c>
       <c r="I34" t="n">
-        <v>41.20764114963065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.05055759954185</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>113.7027556506539</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>172.0761955788632</v>
@@ -3247,13 +3247,13 @@
         <v>137.8948095462003</v>
       </c>
       <c r="W34" t="n">
-        <v>172.2801645589633</v>
+        <v>130.4920287928996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>18.51392629943055</v>
+        <v>104.3418195744672</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>79.36619778398733</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.59361811920515</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>114.8203497421868</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>143.0701530858919</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>201.4304119158185</v>
+        <v>177.4199068154529</v>
       </c>
       <c r="W35" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>201.4304119158185</v>
       </c>
     </row>
     <row r="36">
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58.2576838279228</v>
+        <v>58.25768382792282</v>
       </c>
       <c r="C36" t="n">
-        <v>64.4329991663712</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>14.25538302829005</v>
       </c>
       <c r="E36" t="n">
-        <v>47.73351247894588</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>36.79371257143936</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.40767128189329</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>91.88922887287707</v>
+        <v>91.88922887287708</v>
       </c>
       <c r="U36" t="n">
         <v>117.6658822590303</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>124.5250873274807</v>
       </c>
       <c r="W36" t="n">
         <v>143.4194833389751</v>
       </c>
       <c r="X36" t="n">
-        <v>97.49748538153294</v>
+        <v>97.49748538153295</v>
       </c>
       <c r="Y36" t="n">
-        <v>97.40719595535982</v>
+        <v>97.40719595535984</v>
       </c>
     </row>
     <row r="37">
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>58.97132127668331</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>40.33997319626783</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.15846282462465</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>53.95167268549504</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>38.91831716477503</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.01789155522495</v>
+        <v>69.01789155522496</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.7410982150277</v>
       </c>
       <c r="T37" t="n">
-        <v>119.670089606337</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>178.0435295345463</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>143.8621435018835</v>
+        <v>53.49158788319028</v>
       </c>
       <c r="W37" t="n">
         <v>178.2474985146465</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>117.4341555670926</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>110.3091535301503</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>201.4304119158185</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,55 +3512,55 @@
         <v>201.4304119158185</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>41.59361811920516</v>
+      </c>
+      <c r="S38" t="n">
+        <v>21.00593895406087</v>
+      </c>
+      <c r="T38" t="n">
+        <v>114.8203497421868</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>201.4304119158185</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>102.2003897484614</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>75.21951706699146</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>58.2576838279228</v>
+        <v>58.25768382792282</v>
       </c>
       <c r="C39" t="n">
-        <v>64.4329991663712</v>
+        <v>64.43299916637122</v>
       </c>
       <c r="D39" t="n">
-        <v>39.16956574269422</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>36.79371257143936</v>
       </c>
       <c r="G39" t="n">
-        <v>29.0680173412661</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>3.959944414551927</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.40767128189329</v>
+        <v>63.4076712818933</v>
       </c>
       <c r="T39" t="n">
-        <v>91.88922887287707</v>
+        <v>91.88922887287708</v>
       </c>
       <c r="U39" t="n">
-        <v>66.08397586734306</v>
+        <v>117.6658822590303</v>
       </c>
       <c r="V39" t="n">
         <v>124.5250873274807</v>
@@ -3645,7 +3645,7 @@
         <v>143.4194833389751</v>
       </c>
       <c r="X39" t="n">
-        <v>97.49748538153294</v>
+        <v>81.31939391691847</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.55648035999276</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.9713212766833</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>40.33997319626782</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>59.71547953651422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.95167268549504</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>47.17497510531375</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.01789155522495</v>
+        <v>69.01789155522496</v>
       </c>
       <c r="S40" t="n">
         <v>115.7410982150277</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>119.670089606337</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>178.0435295345464</v>
       </c>
       <c r="V40" t="n">
         <v>143.8621435018835</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>155.3763901498887</v>
       </c>
       <c r="X40" t="n">
-        <v>11.07095360035508</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.3091535301503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>141.1744809958855</v>
+        <v>160.2798376429218</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>160.2798376429218</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>160.2798376429218</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>160.2798376429218</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>141.1744809958854</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>160.2798376429218</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3828,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>57.93990227440268</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>50.21420704422945</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.267322732433882</v>
+        <v>2.267322732433897</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>84.55386098485663</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>113.0354185758404</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>138.8120719619936</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>145.6712770304441</v>
       </c>
       <c r="W42" t="n">
         <v>160.2798376429218</v>
       </c>
       <c r="X42" t="n">
-        <v>85.38426605587233</v>
+        <v>118.6436750844963</v>
       </c>
       <c r="Y42" t="n">
-        <v>118.5533856583232</v>
+        <v>6.125602428131659</v>
       </c>
     </row>
     <row r="43">
@@ -3910,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.85331618760844</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.32116480827709</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.229869997691594</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>136.8872879179911</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>140.8162793093003</v>
       </c>
       <c r="U43" t="n">
         <v>160.2798376429218</v>
       </c>
       <c r="V43" t="n">
-        <v>160.2798376429218</v>
+        <v>17.52088141382428</v>
       </c>
       <c r="W43" t="n">
         <v>160.2798376429218</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C11" t="n">
-        <v>158.3355078473624</v>
+        <v>45.12879813867281</v>
       </c>
       <c r="D11" t="n">
-        <v>158.3355078473624</v>
+        <v>45.12879813867281</v>
       </c>
       <c r="E11" t="n">
-        <v>158.3355078473624</v>
+        <v>45.12879813867281</v>
       </c>
       <c r="F11" t="n">
-        <v>118.3517937444931</v>
+        <v>45.12879813867281</v>
       </c>
       <c r="G11" t="n">
-        <v>78.36807964162378</v>
+        <v>45.12879813867281</v>
       </c>
       <c r="H11" t="n">
-        <v>38.38436553875449</v>
+        <v>45.12879813867281</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>5.145084035803523</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M11" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N11" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O11" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
@@ -5063,28 +5063,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U11" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V11" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W11" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X11" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y11" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E12" t="n">
         <v>118.3517937444931</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G12" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I12" t="n">
         <v>3.166710156947247</v>
@@ -5121,7 +5121,7 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L12" t="n">
         <v>40.77139327069581</v>
@@ -5145,25 +5145,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F13" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G13" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="H13" t="n">
         <v>83.13413836268582</v>
@@ -5218,31 +5218,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M14" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N14" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O14" t="n">
         <v>158.3355078473624</v>
@@ -5300,28 +5300,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R14" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S14" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T14" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="U14" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="V14" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="W14" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="X14" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="Y14" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="U14" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="X14" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D15" t="n">
-        <v>123.1178524655551</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E15" t="n">
         <v>83.13413836268582</v>
       </c>
       <c r="F15" t="n">
+        <v>83.13413836268582</v>
+      </c>
+      <c r="G15" t="n">
         <v>43.15042425981653</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
         <v>3.166710156947247</v>
@@ -5358,16 +5358,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L15" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
         <v>79.95943146291799</v>
@@ -5400,7 +5400,7 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F16" t="n">
         <v>3.166710156947247</v>
@@ -5437,19 +5437,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K16" t="n">
-        <v>15.56787684686968</v>
+        <v>15.56787684686971</v>
       </c>
       <c r="L16" t="n">
-        <v>42.88200185458265</v>
+        <v>42.88200185458268</v>
       </c>
       <c r="M16" t="n">
-        <v>82.07004004680483</v>
+        <v>82.07004004680486</v>
       </c>
       <c r="N16" t="n">
         <v>121.258078239027</v>
       </c>
       <c r="O16" t="n">
-        <v>145.5973548739263</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P16" t="n">
         <v>158.3355078473624</v>
@@ -5458,28 +5458,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R16" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T16" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U16" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V16" t="n">
-        <v>118.3517937444931</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W16" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X16" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.937804938949</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="C17" t="n">
-        <v>322.937804938949</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="D17" t="n">
-        <v>322.937804938949</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="E17" t="n">
-        <v>322.937804938949</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="F17" t="n">
-        <v>251.1086083252555</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="G17" t="n">
-        <v>169.5586575830966</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="H17" t="n">
-        <v>88.00870684093782</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="I17" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="J17" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="K17" t="n">
-        <v>86.38586282116886</v>
+        <v>83.15648477177939</v>
       </c>
       <c r="L17" t="n">
-        <v>166.3129695435587</v>
+        <v>83.15648477177939</v>
       </c>
       <c r="M17" t="n">
-        <v>243.0106982165591</v>
+        <v>163.0835914941693</v>
       </c>
       <c r="N17" t="n">
-        <v>243.0106982165591</v>
+        <v>243.0106982165592</v>
       </c>
       <c r="O17" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="P17" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="Q17" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="R17" t="n">
-        <v>322.937804938949</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="S17" t="n">
-        <v>322.937804938949</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="T17" t="n">
-        <v>322.937804938949</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="U17" t="n">
-        <v>322.937804938949</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="V17" t="n">
-        <v>322.937804938949</v>
+        <v>169.5586575830967</v>
       </c>
       <c r="W17" t="n">
-        <v>322.937804938949</v>
+        <v>88.00870684093785</v>
       </c>
       <c r="X17" t="n">
-        <v>322.937804938949</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="Y17" t="n">
-        <v>322.937804938949</v>
+        <v>6.458756098778982</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>159.8379034546313</v>
+        <v>78.2879527124725</v>
       </c>
       <c r="C18" t="n">
-        <v>159.8379034546313</v>
+        <v>78.2879527124725</v>
       </c>
       <c r="D18" t="n">
-        <v>159.8379034546313</v>
+        <v>78.2879527124725</v>
       </c>
       <c r="E18" t="n">
-        <v>78.28795271247247</v>
+        <v>78.2879527124725</v>
       </c>
       <c r="F18" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="G18" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="H18" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="I18" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="J18" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="K18" t="n">
-        <v>86.38586282116886</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="L18" t="n">
-        <v>166.3129695435587</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2400762659486</v>
+        <v>86.38586282116889</v>
       </c>
       <c r="N18" t="n">
-        <v>246.2400762659486</v>
+        <v>93.68903298084001</v>
       </c>
       <c r="O18" t="n">
-        <v>253.5432464256197</v>
+        <v>173.6161397032299</v>
       </c>
       <c r="P18" t="n">
-        <v>253.5432464256197</v>
+        <v>253.5432464256198</v>
       </c>
       <c r="Q18" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="R18" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="S18" t="n">
+        <v>322.9378049389491</v>
+      </c>
+      <c r="T18" t="n">
         <v>241.3878541967902</v>
       </c>
-      <c r="T18" t="n">
-        <v>159.8379034546313</v>
-      </c>
       <c r="U18" t="n">
-        <v>159.8379034546313</v>
+        <v>241.3878541967902</v>
       </c>
       <c r="V18" t="n">
-        <v>159.8379034546313</v>
+        <v>241.3878541967902</v>
       </c>
       <c r="W18" t="n">
-        <v>159.8379034546313</v>
+        <v>159.8379034546314</v>
       </c>
       <c r="X18" t="n">
-        <v>159.8379034546313</v>
+        <v>78.2879527124725</v>
       </c>
       <c r="Y18" t="n">
-        <v>159.8379034546313</v>
+        <v>78.2879527124725</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.3878541967902</v>
+        <v>169.5586575830967</v>
       </c>
       <c r="C19" t="n">
-        <v>169.5586575830966</v>
+        <v>169.5586575830967</v>
       </c>
       <c r="D19" t="n">
-        <v>88.00870684093782</v>
+        <v>169.5586575830967</v>
       </c>
       <c r="E19" t="n">
-        <v>88.00870684093782</v>
+        <v>169.5586575830967</v>
       </c>
       <c r="F19" t="n">
-        <v>88.00870684093782</v>
+        <v>88.00870684093785</v>
       </c>
       <c r="G19" t="n">
-        <v>88.00870684093782</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="H19" t="n">
-        <v>88.00870684093782</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="I19" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="J19" t="n">
-        <v>6.45875609877898</v>
+        <v>6.458756098778982</v>
       </c>
       <c r="K19" t="n">
-        <v>18.8599227887014</v>
+        <v>18.85992278870143</v>
       </c>
       <c r="L19" t="n">
-        <v>80.62201139396086</v>
+        <v>80.62201139396088</v>
       </c>
       <c r="M19" t="n">
-        <v>154.2580131837295</v>
+        <v>154.2580131837296</v>
       </c>
       <c r="N19" t="n">
         <v>232.3968274367123</v>
       </c>
       <c r="O19" t="n">
-        <v>291.184067669158</v>
+        <v>291.1840676691581</v>
       </c>
       <c r="P19" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="Q19" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="R19" t="n">
-        <v>322.937804938949</v>
+        <v>322.9378049389491</v>
       </c>
       <c r="S19" t="n">
-        <v>241.3878541967902</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="T19" t="n">
-        <v>241.3878541967902</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="U19" t="n">
-        <v>241.3878541967902</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="V19" t="n">
-        <v>241.3878541967902</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="W19" t="n">
-        <v>241.3878541967902</v>
+        <v>251.1086083252556</v>
       </c>
       <c r="X19" t="n">
-        <v>241.3878541967902</v>
+        <v>169.5586575830967</v>
       </c>
       <c r="Y19" t="n">
-        <v>241.3878541967902</v>
+        <v>169.5586575830967</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>190.7080449172009</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C20" t="n">
-        <v>190.7080449172009</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>190.7080449172009</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>190.7080449172009</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>190.7080449172009</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>190.7080449172009</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>190.7080449172009</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>921.0543748495011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>921.0543748495011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>921.0543748495011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>921.0543748495011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>921.0543748495011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>677.6055982054011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>434.156821561301</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>190.7080449172009</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.28101169025155</v>
+        <v>245.1029940769445</v>
       </c>
       <c r="C21" t="n">
-        <v>42.28101169025155</v>
+        <v>245.1029940769445</v>
       </c>
       <c r="D21" t="n">
-        <v>42.28101169025155</v>
+        <v>137.3435912656807</v>
       </c>
       <c r="E21" t="n">
-        <v>42.28101169025155</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8592688625397</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>945.8592688625397</v>
       </c>
       <c r="T21" t="n">
-        <v>803.0455677193897</v>
+        <v>945.8592688625397</v>
       </c>
       <c r="U21" t="n">
-        <v>615.9969563057663</v>
+        <v>945.8592688625397</v>
       </c>
       <c r="V21" t="n">
-        <v>422.019854924011</v>
+        <v>751.8821674807845</v>
       </c>
       <c r="W21" t="n">
-        <v>208.9575050457969</v>
+        <v>538.8198176025703</v>
       </c>
       <c r="X21" t="n">
-        <v>42.28101169025155</v>
+        <v>372.143324247025</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.28101169025155</v>
+        <v>372.143324247025</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="I22" t="n">
         <v>19.28114311021272</v>
@@ -5911,49 +5911,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>37.58997041626143</v>
+        <v>37.58997041626146</v>
       </c>
       <c r="L22" t="n">
-        <v>105.2597196376471</v>
+        <v>105.2597196376472</v>
       </c>
       <c r="M22" t="n">
-        <v>184.803382043542</v>
+        <v>184.8033820435421</v>
       </c>
       <c r="N22" t="n">
-        <v>268.849856912651</v>
+        <v>268.8498569126511</v>
       </c>
       <c r="O22" t="n">
-        <v>333.544757761223</v>
+        <v>333.5447577612232</v>
       </c>
       <c r="P22" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="Q22" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="R22" t="n">
-        <v>233.2969287828151</v>
+        <v>233.2969287828154</v>
       </c>
       <c r="S22" t="n">
-        <v>233.2969287828151</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="T22" t="n">
-        <v>233.2969287828151</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="U22" t="n">
-        <v>233.2969287828151</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="V22" t="n">
-        <v>233.2969287828151</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="W22" t="n">
-        <v>233.2969287828151</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="X22" t="n">
-        <v>198.8987154037553</v>
+        <v>135.1268180049306</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>135.1268180049306</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -5987,7 +5987,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6029,10 +6029,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>263.3008807250409</v>
+        <v>201.6837878342082</v>
       </c>
       <c r="C24" t="n">
-        <v>130.0228582939014</v>
+        <v>68.40576540306873</v>
       </c>
       <c r="D24" t="n">
-        <v>130.0228582939014</v>
+        <v>68.40576540306873</v>
       </c>
       <c r="E24" t="n">
-        <v>130.0228582939014</v>
+        <v>68.40576540306873</v>
       </c>
       <c r="F24" t="n">
-        <v>91.47527185264592</v>
+        <v>68.40576540306873</v>
       </c>
       <c r="G24" t="n">
-        <v>91.47527185264592</v>
+        <v>68.40576540306873</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>68.40576540306873</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>777.0085440970128</v>
       </c>
       <c r="V24" t="n">
-        <v>770.080054128881</v>
+        <v>583.0314427152575</v>
       </c>
       <c r="W24" t="n">
-        <v>557.0177042506668</v>
+        <v>369.9690928370434</v>
       </c>
       <c r="X24" t="n">
-        <v>390.3412108951215</v>
+        <v>203.2925994814981</v>
       </c>
       <c r="Y24" t="n">
-        <v>390.3412108951215</v>
+        <v>201.6837878342082</v>
       </c>
     </row>
     <row r="25">
@@ -6148,37 +6148,37 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>37.58997041626143</v>
+        <v>37.58997041626146</v>
       </c>
       <c r="L25" t="n">
-        <v>105.2597196376471</v>
+        <v>105.2597196376472</v>
       </c>
       <c r="M25" t="n">
-        <v>184.803382043542</v>
+        <v>184.8033820435421</v>
       </c>
       <c r="N25" t="n">
-        <v>268.849856912651</v>
+        <v>268.8498569126511</v>
       </c>
       <c r="O25" t="n">
-        <v>333.544757761223</v>
+        <v>333.5447577612232</v>
       </c>
       <c r="P25" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="Q25" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="R25" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="S25" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="T25" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="U25" t="n">
-        <v>371.2061556471403</v>
+        <v>371.2061556471405</v>
       </c>
       <c r="V25" t="n">
         <v>262.7299197543128</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6224,7 +6224,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K26" t="n">
         <v>122.2961490211351</v>
@@ -6263,13 +6263,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>309.0112258076822</v>
+        <v>433.1553222468875</v>
       </c>
       <c r="C27" t="n">
-        <v>187.0013755870664</v>
+        <v>311.1454720262718</v>
       </c>
       <c r="D27" t="n">
-        <v>187.0013755870664</v>
+        <v>311.1454720262718</v>
       </c>
       <c r="E27" t="n">
-        <v>80.20709964212215</v>
+        <v>204.3511960813275</v>
       </c>
       <c r="F27" t="n">
-        <v>80.20709964212215</v>
+        <v>204.3511960813275</v>
       </c>
       <c r="G27" t="n">
-        <v>80.20709964212215</v>
+        <v>118.0635497244543</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>57.13759319254495</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>916.491271349066</v>
+        <v>915.3308051240332</v>
       </c>
       <c r="S27" t="n">
-        <v>795.5171058602461</v>
+        <v>915.3308051240332</v>
       </c>
       <c r="T27" t="n">
-        <v>795.5171058602461</v>
+        <v>765.5873895433106</v>
       </c>
       <c r="U27" t="n">
-        <v>619.7366666571464</v>
+        <v>765.5873895433106</v>
       </c>
       <c r="V27" t="n">
-        <v>619.7366666571464</v>
+        <v>765.5873895433106</v>
       </c>
       <c r="W27" t="n">
-        <v>619.7366666571464</v>
+        <v>563.7932118756203</v>
       </c>
       <c r="X27" t="n">
-        <v>464.3283455121249</v>
+        <v>563.7932118756203</v>
       </c>
       <c r="Y27" t="n">
-        <v>309.0112258076822</v>
+        <v>548.9274802064442</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="K28" t="n">
-        <v>48.63390599979578</v>
+        <v>575.2212923620855</v>
       </c>
       <c r="L28" t="n">
-        <v>127.3475908047158</v>
+        <v>653.9349771670055</v>
       </c>
       <c r="M28" t="n">
-        <v>217.9351887941451</v>
+        <v>744.5225751564348</v>
       </c>
       <c r="N28" t="n">
-        <v>313.0255992467884</v>
+        <v>839.6129856090781</v>
       </c>
       <c r="O28" t="n">
-        <v>388.7644356788948</v>
+        <v>915.3518220411845</v>
       </c>
       <c r="P28" t="n">
-        <v>437.4697691483464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>437.4697691483464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>370.9222470753051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>197.0860341792788</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>727.2891938070153</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>545.8685294725024</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>483.2365253920055</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="C29" t="n">
-        <v>483.2365253920055</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="D29" t="n">
-        <v>483.2365253920055</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="E29" t="n">
-        <v>483.2365253920055</v>
+        <v>490.2369584797062</v>
       </c>
       <c r="F29" t="n">
-        <v>483.2365253920055</v>
+        <v>246.7881818356062</v>
       </c>
       <c r="G29" t="n">
         <v>246.7881818356062</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>726.6853020361056</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="X29" t="n">
-        <v>726.6853020361056</v>
+        <v>733.6857351238064</v>
       </c>
       <c r="Y29" t="n">
-        <v>726.6853020361056</v>
+        <v>733.6857351238064</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210.1874114706286</v>
+        <v>210.1874114706288</v>
       </c>
       <c r="C30" t="n">
-        <v>151.131183985085</v>
+        <v>151.1311839850851</v>
       </c>
       <c r="D30" t="n">
         <v>117.5935761194174</v>
       </c>
       <c r="E30" t="n">
-        <v>73.7529229095453</v>
+        <v>73.75292290954533</v>
       </c>
       <c r="F30" t="n">
         <v>42.61516673201375</v>
@@ -6549,13 +6549,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6570,22 +6570,22 @@
         <v>906.0366127568885</v>
       </c>
       <c r="T30" t="n">
-        <v>819.246819911238</v>
+        <v>819.2468199112379</v>
       </c>
       <c r="U30" t="n">
-        <v>706.4200034432106</v>
+        <v>706.4200034432104</v>
       </c>
       <c r="V30" t="n">
-        <v>586.664697007051</v>
+        <v>586.6646970070512</v>
       </c>
       <c r="W30" t="n">
-        <v>447.824142074433</v>
+        <v>447.8241420744332</v>
       </c>
       <c r="X30" t="n">
-        <v>355.3694436644837</v>
+        <v>355.3694436644838</v>
       </c>
       <c r="Y30" t="n">
-        <v>263.0059466951132</v>
+        <v>263.0059466951134</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>187.9243177603519</v>
+        <v>127.1115803847898</v>
       </c>
       <c r="C31" t="n">
-        <v>134.3849366280285</v>
+        <v>73.57219925246639</v>
       </c>
       <c r="D31" t="n">
-        <v>134.3849366280285</v>
+        <v>73.57219925246639</v>
       </c>
       <c r="E31" t="n">
-        <v>115.1960792015882</v>
+        <v>73.57219925246639</v>
       </c>
       <c r="F31" t="n">
-        <v>115.1960792015882</v>
+        <v>73.57219925246639</v>
       </c>
       <c r="G31" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>39.95596023455803</v>
+        <v>39.95596023455802</v>
       </c>
       <c r="K31" t="n">
-        <v>131.0095687667854</v>
+        <v>131.0095687667853</v>
       </c>
       <c r="L31" t="n">
         <v>271.4240992143497</v>
@@ -6631,40 +6631,40 @@
         <v>423.7125428464232</v>
       </c>
       <c r="N31" t="n">
-        <v>580.5037989417109</v>
+        <v>580.5037989417108</v>
       </c>
       <c r="O31" t="n">
-        <v>717.9434810164615</v>
+        <v>717.9434810164614</v>
       </c>
       <c r="P31" t="n">
-        <v>828.3496601285574</v>
+        <v>828.3496601285573</v>
       </c>
       <c r="Q31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="R31" t="n">
-        <v>856.1496427492314</v>
+        <v>856.1496427492311</v>
       </c>
       <c r="S31" t="n">
-        <v>856.1496427492314</v>
+        <v>745.267052588277</v>
       </c>
       <c r="T31" t="n">
-        <v>741.2983744152375</v>
+        <v>630.4157842542832</v>
       </c>
       <c r="U31" t="n">
-        <v>567.4840354466887</v>
+        <v>630.4157842542832</v>
       </c>
       <c r="V31" t="n">
-        <v>428.1963490363853</v>
+        <v>491.1280978439797</v>
       </c>
       <c r="W31" t="n">
-        <v>254.1759807950082</v>
+        <v>317.1077296026026</v>
       </c>
       <c r="X31" t="n">
-        <v>254.1759807950082</v>
+        <v>298.7590207673927</v>
       </c>
       <c r="Y31" t="n">
-        <v>254.1759807950082</v>
+        <v>193.3632434194461</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>733.6857351238064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>733.6857351238064</v>
+        <v>721.1882586994692</v>
       </c>
       <c r="E32" t="n">
-        <v>490.2369584797062</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>246.7881818356062</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>246.7881818356062</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6698,7 +6698,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K32" t="n">
         <v>122.2961490211351</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>928.071009890917</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>210.1874114706289</v>
+        <v>210.1874114706286</v>
       </c>
       <c r="C33" t="n">
-        <v>151.1311839850854</v>
+        <v>151.131183985085</v>
       </c>
       <c r="D33" t="n">
-        <v>117.5935761194176</v>
+        <v>117.5935761194174</v>
       </c>
       <c r="E33" t="n">
-        <v>73.75292290954553</v>
+        <v>73.7529229095453</v>
       </c>
       <c r="F33" t="n">
         <v>42.61516673201373</v>
@@ -6783,13 +6783,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6813,16 @@
         <v>706.4200034432106</v>
       </c>
       <c r="V33" t="n">
-        <v>586.6646970070514</v>
+        <v>586.6646970070515</v>
       </c>
       <c r="W33" t="n">
-        <v>447.8241420744332</v>
+        <v>447.824142074433</v>
       </c>
       <c r="X33" t="n">
-        <v>355.3694436644839</v>
+        <v>355.3694436644837</v>
       </c>
       <c r="Y33" t="n">
-        <v>263.0059466951134</v>
+        <v>263.0059466951132</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60.90502305933459</v>
+        <v>239.5900468939384</v>
       </c>
       <c r="C34" t="n">
-        <v>60.90502305933459</v>
+        <v>186.0506657616149</v>
       </c>
       <c r="D34" t="n">
-        <v>60.90502305933459</v>
+        <v>186.0506657616149</v>
       </c>
       <c r="E34" t="n">
-        <v>60.90502305933459</v>
+        <v>153.5343739748053</v>
       </c>
       <c r="F34" t="n">
-        <v>60.90502305933459</v>
+        <v>122.0412282724784</v>
       </c>
       <c r="G34" t="n">
-        <v>60.90502305933459</v>
+        <v>67.75017213022478</v>
       </c>
       <c r="H34" t="n">
-        <v>60.90502305933459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6880,28 +6880,28 @@
         <v>856.1496427492314</v>
       </c>
       <c r="R34" t="n">
-        <v>792.4622108305023</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="S34" t="n">
-        <v>681.5796206695481</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="T34" t="n">
-        <v>566.7283523355543</v>
+        <v>856.1496427492314</v>
       </c>
       <c r="U34" t="n">
-        <v>392.9140133670056</v>
+        <v>682.3353037806826</v>
       </c>
       <c r="V34" t="n">
-        <v>253.6263269567022</v>
+        <v>543.0476173703792</v>
       </c>
       <c r="W34" t="n">
-        <v>79.60595871532504</v>
+        <v>411.2374872765412</v>
       </c>
       <c r="X34" t="n">
-        <v>79.60595871532504</v>
+        <v>411.2374872765412</v>
       </c>
       <c r="Y34" t="n">
-        <v>60.90502305933459</v>
+        <v>305.8417099285946</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.28230950274764</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="C35" t="n">
-        <v>96.28230950274764</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="D35" t="n">
-        <v>96.28230950274764</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="E35" t="n">
-        <v>96.28230950274764</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="F35" t="n">
         <v>16.11443295326548</v>
@@ -6941,10 +6941,10 @@
         <v>119.1294388641878</v>
       </c>
       <c r="L35" t="n">
-        <v>168.0344266352543</v>
+        <v>299.2052904488464</v>
       </c>
       <c r="M35" t="n">
-        <v>367.4505344319145</v>
+        <v>498.6213982455067</v>
       </c>
       <c r="N35" t="n">
         <v>566.8666422285748</v>
@@ -6959,28 +6959,28 @@
         <v>805.7216476632739</v>
       </c>
       <c r="R35" t="n">
-        <v>763.707891987309</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="S35" t="n">
-        <v>763.707891987309</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="T35" t="n">
-        <v>647.7277407325748</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="U35" t="n">
-        <v>503.2124345852092</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="V35" t="n">
-        <v>299.7473720439784</v>
+        <v>626.5096205769578</v>
       </c>
       <c r="W35" t="n">
-        <v>96.28230950274764</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="X35" t="n">
-        <v>96.28230950274764</v>
+        <v>219.5794954944963</v>
       </c>
       <c r="Y35" t="n">
-        <v>96.28230950274764</v>
+        <v>16.11443295326548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>129.413939665707</v>
+        <v>67.67917598329518</v>
       </c>
       <c r="C36" t="n">
-        <v>64.33010212391788</v>
+        <v>67.67917598329518</v>
       </c>
       <c r="D36" t="n">
-        <v>64.33010212391788</v>
+        <v>53.27979918704261</v>
       </c>
       <c r="E36" t="n">
-        <v>16.11443295326548</v>
+        <v>53.27979918704261</v>
       </c>
       <c r="F36" t="n">
         <v>16.11443295326548</v>
@@ -7017,22 +7017,22 @@
         <v>16.11443295326548</v>
       </c>
       <c r="K36" t="n">
-        <v>16.11443295326548</v>
+        <v>141.4719930111029</v>
       </c>
       <c r="L36" t="n">
-        <v>215.5305407499258</v>
+        <v>141.4719930111029</v>
       </c>
       <c r="M36" t="n">
-        <v>406.8894320699533</v>
+        <v>337.4948735566239</v>
       </c>
       <c r="N36" t="n">
-        <v>606.3055398666136</v>
+        <v>536.9109813532842</v>
       </c>
       <c r="O36" t="n">
-        <v>805.7216476632739</v>
+        <v>736.3270891499445</v>
       </c>
       <c r="P36" t="n">
-        <v>805.7216476632739</v>
+        <v>736.3270891499445</v>
       </c>
       <c r="Q36" t="n">
         <v>805.7216476632739</v>
@@ -7041,25 +7041,25 @@
         <v>805.7216476632739</v>
       </c>
       <c r="S36" t="n">
-        <v>741.6734948532807</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="T36" t="n">
-        <v>648.8560919513847</v>
+        <v>712.9042447613779</v>
       </c>
       <c r="U36" t="n">
-        <v>530.0016654271117</v>
+        <v>594.0498182371048</v>
       </c>
       <c r="V36" t="n">
-        <v>530.0016654271117</v>
+        <v>468.2669017447</v>
       </c>
       <c r="W36" t="n">
-        <v>385.133500438248</v>
+        <v>323.3987367558362</v>
       </c>
       <c r="X36" t="n">
-        <v>286.6511919720531</v>
+        <v>224.9164282896413</v>
       </c>
       <c r="Y36" t="n">
-        <v>188.2600849464371</v>
+        <v>126.5253212640253</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.9225035090938</v>
+        <v>154.9727736578875</v>
       </c>
       <c r="C37" t="n">
-        <v>109.9225035090938</v>
+        <v>95.4057824693185</v>
       </c>
       <c r="D37" t="n">
-        <v>109.9225035090938</v>
+        <v>54.65833479632068</v>
       </c>
       <c r="E37" t="n">
-        <v>109.9225035090938</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9225035090938</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="G37" t="n">
-        <v>109.9225035090938</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="H37" t="n">
-        <v>55.42586443283622</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="I37" t="n">
         <v>16.11443295326548</v>
       </c>
       <c r="J37" t="n">
-        <v>30.88158946148452</v>
+        <v>30.88158946148451</v>
       </c>
       <c r="K37" t="n">
         <v>116.0275373775856</v>
@@ -7102,7 +7102,7 @@
         <v>250.5344072090237</v>
       </c>
       <c r="M37" t="n">
-        <v>396.915190224971</v>
+        <v>396.9151902249709</v>
       </c>
       <c r="N37" t="n">
         <v>547.7987857041323</v>
@@ -7120,25 +7120,25 @@
         <v>736.0066056882991</v>
       </c>
       <c r="S37" t="n">
-        <v>736.0066056882991</v>
+        <v>619.0964054710994</v>
       </c>
       <c r="T37" t="n">
-        <v>615.1277272980598</v>
+        <v>619.0964054710994</v>
       </c>
       <c r="U37" t="n">
-        <v>435.2857782732655</v>
+        <v>619.0964054710994</v>
       </c>
       <c r="V37" t="n">
-        <v>289.9704818067165</v>
+        <v>565.0644985183819</v>
       </c>
       <c r="W37" t="n">
-        <v>109.9225035090938</v>
+        <v>385.0165202207592</v>
       </c>
       <c r="X37" t="n">
-        <v>109.9225035090938</v>
+        <v>266.3961610620797</v>
       </c>
       <c r="Y37" t="n">
-        <v>109.9225035090938</v>
+        <v>154.9727736578875</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>729.7423374945956</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="C38" t="n">
-        <v>526.2772749533649</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="D38" t="n">
-        <v>526.2772749533649</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="E38" t="n">
-        <v>322.812212412134</v>
+        <v>219.5794954944963</v>
       </c>
       <c r="F38" t="n">
-        <v>322.812212412134</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="G38" t="n">
-        <v>119.3471498709032</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="H38" t="n">
-        <v>119.3471498709032</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="I38" t="n">
         <v>16.11443295326548</v>
@@ -7181,13 +7181,13 @@
         <v>299.2052904488464</v>
       </c>
       <c r="M38" t="n">
-        <v>457.1105897239655</v>
+        <v>498.6213982455067</v>
       </c>
       <c r="N38" t="n">
-        <v>656.5266975206258</v>
+        <v>698.037506042167</v>
       </c>
       <c r="O38" t="n">
-        <v>805.7216476632739</v>
+        <v>716.0615923712229</v>
       </c>
       <c r="P38" t="n">
         <v>805.7216476632739</v>
@@ -7196,28 +7196,28 @@
         <v>805.7216476632739</v>
       </c>
       <c r="R38" t="n">
-        <v>805.7216476632739</v>
+        <v>763.707891987309</v>
       </c>
       <c r="S38" t="n">
-        <v>805.7216476632739</v>
+        <v>742.489771831692</v>
       </c>
       <c r="T38" t="n">
-        <v>729.7423374945956</v>
+        <v>626.5096205769578</v>
       </c>
       <c r="U38" t="n">
-        <v>729.7423374945956</v>
+        <v>626.5096205769578</v>
       </c>
       <c r="V38" t="n">
-        <v>729.7423374945956</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="W38" t="n">
-        <v>729.7423374945956</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="X38" t="n">
-        <v>729.7423374945956</v>
+        <v>423.0445580357271</v>
       </c>
       <c r="Y38" t="n">
-        <v>729.7423374945956</v>
+        <v>423.0445580357271</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>154.1250659480972</v>
+        <v>118.3636367288317</v>
       </c>
       <c r="C39" t="n">
-        <v>89.04122840630815</v>
+        <v>53.27979918704261</v>
       </c>
       <c r="D39" t="n">
-        <v>49.4760104843948</v>
+        <v>53.27979918704261</v>
       </c>
       <c r="E39" t="n">
-        <v>49.4760104843948</v>
+        <v>53.27979918704261</v>
       </c>
       <c r="F39" t="n">
-        <v>49.4760104843948</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="G39" t="n">
-        <v>20.11437680634823</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="H39" t="n">
         <v>16.11443295326548</v>
@@ -7260,13 +7260,13 @@
         <v>141.4719930111029</v>
       </c>
       <c r="M39" t="n">
-        <v>337.4948735566239</v>
+        <v>340.8881008077632</v>
       </c>
       <c r="N39" t="n">
-        <v>536.9109813532842</v>
+        <v>354.2675037399333</v>
       </c>
       <c r="O39" t="n">
-        <v>736.3270891499445</v>
+        <v>553.6836115365936</v>
       </c>
       <c r="P39" t="n">
         <v>736.3270891499445</v>
@@ -7284,19 +7284,19 @@
         <v>648.8560919513847</v>
       </c>
       <c r="U39" t="n">
-        <v>582.1046011762907</v>
+        <v>530.0016654271117</v>
       </c>
       <c r="V39" t="n">
-        <v>456.3216846838859</v>
+        <v>404.2187489347069</v>
       </c>
       <c r="W39" t="n">
-        <v>311.4535196950222</v>
+        <v>259.3505839458431</v>
       </c>
       <c r="X39" t="n">
-        <v>212.9712112288273</v>
+        <v>177.2097820095618</v>
       </c>
       <c r="Y39" t="n">
-        <v>212.9712112288273</v>
+        <v>177.2097820095618</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>278.8956670949565</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="C40" t="n">
-        <v>219.3286759063875</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="D40" t="n">
-        <v>178.5812282333897</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="E40" t="n">
-        <v>178.5812282333897</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="F40" t="n">
-        <v>178.5812282333897</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="G40" t="n">
-        <v>118.2625620348905</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="H40" t="n">
-        <v>63.76592295863291</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="I40" t="n">
         <v>16.11443295326548</v>
       </c>
       <c r="J40" t="n">
-        <v>30.88158946148452</v>
+        <v>30.88158946148451</v>
       </c>
       <c r="K40" t="n">
         <v>116.0275373775856</v>
@@ -7339,43 +7339,43 @@
         <v>250.5344072090236</v>
       </c>
       <c r="M40" t="n">
-        <v>396.915190224971</v>
+        <v>396.9151902249708</v>
       </c>
       <c r="N40" t="n">
-        <v>547.7987857041323</v>
+        <v>547.7987857041322</v>
       </c>
       <c r="O40" t="n">
-        <v>679.3308071627567</v>
+        <v>679.3308071627566</v>
       </c>
       <c r="P40" t="n">
-        <v>783.8293256587264</v>
+        <v>783.8293256587262</v>
       </c>
       <c r="Q40" t="n">
-        <v>805.721647663274</v>
+        <v>805.7216476632739</v>
       </c>
       <c r="R40" t="n">
-        <v>736.0066056882993</v>
+        <v>736.0066056882991</v>
       </c>
       <c r="S40" t="n">
-        <v>619.0964054710995</v>
+        <v>619.0964054710994</v>
       </c>
       <c r="T40" t="n">
-        <v>619.0964054710995</v>
+        <v>498.21752708086</v>
       </c>
       <c r="U40" t="n">
-        <v>619.0964054710995</v>
+        <v>318.3755780560657</v>
       </c>
       <c r="V40" t="n">
-        <v>473.7811090045506</v>
+        <v>173.0602815895167</v>
       </c>
       <c r="W40" t="n">
-        <v>473.7811090045506</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="X40" t="n">
-        <v>462.5983275900505</v>
+        <v>16.11443295326548</v>
       </c>
       <c r="Y40" t="n">
-        <v>351.1749401858583</v>
+        <v>16.11443295326548</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>641.1193505716873</v>
+        <v>336.6200388153162</v>
       </c>
       <c r="C41" t="n">
-        <v>498.5188647172574</v>
+        <v>174.721212913375</v>
       </c>
       <c r="D41" t="n">
-        <v>498.5188647172574</v>
+        <v>174.721212913375</v>
       </c>
       <c r="E41" t="n">
-        <v>336.6200388153162</v>
+        <v>174.721212913375</v>
       </c>
       <c r="F41" t="n">
         <v>174.721212913375</v>
       </c>
       <c r="G41" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="H41" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="I41" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="J41" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="K41" t="n">
-        <v>115.8373929223561</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="L41" t="n">
-        <v>243.5873058704956</v>
+        <v>171.4994262779263</v>
       </c>
       <c r="M41" t="n">
         <v>243.5873058704956</v>
       </c>
       <c r="N41" t="n">
-        <v>402.2643451369883</v>
+        <v>402.2643451369881</v>
       </c>
       <c r="O41" t="n">
-        <v>551.4592952796363</v>
+        <v>551.4592952796362</v>
       </c>
       <c r="P41" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="Q41" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="R41" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="S41" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="T41" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="U41" t="n">
-        <v>641.1193505716873</v>
+        <v>498.5188647172574</v>
       </c>
       <c r="V41" t="n">
-        <v>641.1193505716873</v>
+        <v>498.5188647172574</v>
       </c>
       <c r="W41" t="n">
-        <v>641.1193505716873</v>
+        <v>498.5188647172574</v>
       </c>
       <c r="X41" t="n">
-        <v>641.1193505716873</v>
+        <v>336.6200388153162</v>
       </c>
       <c r="Y41" t="n">
-        <v>641.1193505716873</v>
+        <v>336.6200388153162</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>73.63776580621816</v>
+        <v>65.83403325048764</v>
       </c>
       <c r="C42" t="n">
-        <v>73.63776580621816</v>
+        <v>65.83403325048764</v>
       </c>
       <c r="D42" t="n">
-        <v>73.63776580621816</v>
+        <v>65.83403325048764</v>
       </c>
       <c r="E42" t="n">
-        <v>73.63776580621816</v>
+        <v>65.83403325048764</v>
       </c>
       <c r="F42" t="n">
-        <v>15.11261199369019</v>
+        <v>65.83403325048764</v>
       </c>
       <c r="G42" t="n">
-        <v>15.11261199369019</v>
+        <v>15.11261199369021</v>
       </c>
       <c r="H42" t="n">
-        <v>15.11261199369019</v>
+        <v>15.11261199369021</v>
       </c>
       <c r="I42" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="J42" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="K42" t="n">
         <v>138.1799470692712</v>
       </c>
       <c r="L42" t="n">
-        <v>296.8569863357637</v>
+        <v>138.1799470692712</v>
       </c>
       <c r="M42" t="n">
-        <v>296.8569863357637</v>
+        <v>254.3707135253727</v>
       </c>
       <c r="N42" t="n">
-        <v>323.7652720387021</v>
+        <v>413.0477527918653</v>
       </c>
       <c r="O42" t="n">
-        <v>482.4423113051947</v>
+        <v>571.7247920583578</v>
       </c>
       <c r="P42" t="n">
-        <v>641.1193505716873</v>
+        <v>571.7247920583578</v>
       </c>
       <c r="Q42" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="R42" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="S42" t="n">
-        <v>555.7114101829432</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="T42" t="n">
-        <v>441.5342197022962</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="U42" t="n">
-        <v>441.5342197022962</v>
+        <v>500.9051364686633</v>
       </c>
       <c r="V42" t="n">
-        <v>441.5342197022962</v>
+        <v>353.7624323975076</v>
       </c>
       <c r="W42" t="n">
-        <v>279.635393800355</v>
+        <v>191.8636064955664</v>
       </c>
       <c r="X42" t="n">
-        <v>193.388660410585</v>
+        <v>72.02151045062062</v>
       </c>
       <c r="Y42" t="n">
-        <v>73.63776580621816</v>
+        <v>65.83403325048764</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="G43" t="n">
-        <v>81.83366459555202</v>
+        <v>19.1151849889</v>
       </c>
       <c r="H43" t="n">
-        <v>81.83366459555202</v>
+        <v>19.1151849889</v>
       </c>
       <c r="I43" t="n">
-        <v>12.82238701143375</v>
+        <v>19.1151849889</v>
       </c>
       <c r="J43" t="n">
-        <v>12.82238701143375</v>
+        <v>12.82238701143374</v>
       </c>
       <c r="K43" t="n">
-        <v>77.03360712160112</v>
+        <v>77.03360712160111</v>
       </c>
       <c r="L43" t="n">
         <v>190.6057491471055</v>
       </c>
       <c r="M43" t="n">
-        <v>316.0518043571191</v>
+        <v>316.051804357119</v>
       </c>
       <c r="N43" t="n">
-        <v>446.0006720303468</v>
+        <v>446.0006720303467</v>
       </c>
       <c r="O43" t="n">
         <v>556.5979656830373</v>
       </c>
       <c r="P43" t="n">
-        <v>640.1617563730733</v>
+        <v>640.1617563730732</v>
       </c>
       <c r="Q43" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="R43" t="n">
-        <v>641.1193505716873</v>
+        <v>641.1193505716872</v>
       </c>
       <c r="S43" t="n">
-        <v>641.1193505716873</v>
+        <v>502.8493627757366</v>
       </c>
       <c r="T43" t="n">
-        <v>641.1193505716873</v>
+        <v>360.6106968067464</v>
       </c>
       <c r="U43" t="n">
-        <v>479.2205246697461</v>
+        <v>198.7118709048052</v>
       </c>
       <c r="V43" t="n">
-        <v>317.3216987678048</v>
+        <v>181.0140108908412</v>
       </c>
       <c r="W43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="X43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.4228728658636</v>
+        <v>19.1151849889</v>
       </c>
     </row>
     <row r="44">
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O11" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L14" t="n">
         <v>275.3502919318278</v>
@@ -8939,7 +8939,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9018,7 +9018,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>173.5582843761708</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>300.8243022797178</v>
+        <v>297.5623042500315</v>
       </c>
       <c r="L17" t="n">
-        <v>316.5008662047245</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>307.8186864323237</v>
+        <v>311.08068446201</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>310.1475148313282</v>
       </c>
       <c r="O17" t="n">
         <v>310.832662656424</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>218.5758902090963</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>219.2888310146114</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>222.8684851567556</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>138.7186516385567</v>
       </c>
       <c r="O18" t="n">
-        <v>149.9731839996678</v>
+        <v>223.3306956791817</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>214.7088586490675</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,7 +10440,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10589,13 +10589,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>285.165392516519</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>431.7766451430912</v>
       </c>
       <c r="N35" t="n">
-        <v>430.8434755124094</v>
+        <v>298.3476534784779</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>339.9847916956926</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>335.4258433361875</v>
+        <v>340.1369435639588</v>
       </c>
       <c r="N36" t="n">
         <v>332.7721239991517</v>
@@ -10683,7 +10683,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,16 +10829,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>389.8465355253728</v>
+        <v>431.7766451430912</v>
       </c>
       <c r="N38" t="n">
         <v>430.8434755124094</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>248.3043592288139</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10908,16 +10908,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>340.1369435639588</v>
+        <v>343.5644458378368</v>
       </c>
       <c r="N39" t="n">
-        <v>332.7721239991517</v>
+        <v>144.8562604996668</v>
       </c>
       <c r="O39" t="n">
         <v>344.0266563602629</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>364.8067310792191</v>
+        <v>396.046252612909</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>303.1622732197669</v>
       </c>
       <c r="N41" t="n">
         <v>389.6929012395127</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>298.834217422796</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>259.498444483737</v>
       </c>
       <c r="N42" t="n">
-        <v>158.5217986519579</v>
+        <v>291.6215497262551</v>
       </c>
       <c r="O42" t="n">
-        <v>302.8760820873663</v>
+        <v>302.8760820873662</v>
       </c>
       <c r="P42" t="n">
-        <v>294.2542450572521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>372.7431424489358</v>
       </c>
       <c r="C11" t="n">
-        <v>355.2821925564627</v>
+        <v>322.3753038685413</v>
       </c>
       <c r="D11" t="n">
         <v>344.6923424061382</v>
@@ -23267,19 +23267,19 @@
         <v>371.939670857717</v>
       </c>
       <c r="F11" t="n">
-        <v>357.301469565326</v>
+        <v>396.8853465271666</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7281613387497</v>
+        <v>405.3120383005902</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9002259393818</v>
+        <v>329.4841029012223</v>
       </c>
       <c r="I11" t="n">
-        <v>165.6197115278719</v>
+        <v>160.9013133940205</v>
       </c>
       <c r="J11" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>139.8784187266049</v>
+        <v>100.2945417647643</v>
       </c>
       <c r="S11" t="n">
         <v>199.0293703717005</v>
@@ -23315,7 +23315,7 @@
         <v>241.3549536932917</v>
       </c>
       <c r="V11" t="n">
-        <v>317.7615592555901</v>
+        <v>278.1776822937495</v>
       </c>
       <c r="W11" t="n">
         <v>339.2502695028682</v>
@@ -23343,19 +23343,19 @@
         <v>137.4543663500939</v>
       </c>
       <c r="E12" t="n">
-        <v>108.0705042790156</v>
+        <v>147.6543812408561</v>
       </c>
       <c r="F12" t="n">
-        <v>95.49463621699849</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G12" t="n">
-        <v>87.76894098682524</v>
+        <v>92.48733912067667</v>
       </c>
       <c r="H12" t="n">
-        <v>67.37926619396248</v>
+        <v>62.66086806011107</v>
       </c>
       <c r="I12" t="n">
-        <v>79.40593363687027</v>
+        <v>39.82205667502969</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,7 +23385,7 @@
         <v>90.16713493809833</v>
       </c>
       <c r="S12" t="n">
-        <v>161.692471889293</v>
+        <v>122.1085949274524</v>
       </c>
       <c r="T12" t="n">
         <v>190.1740294802768</v>
@@ -23425,13 +23425,13 @@
         <v>136.4432634320244</v>
       </c>
       <c r="F13" t="n">
-        <v>135.4303488083864</v>
+        <v>100.5648699803973</v>
       </c>
       <c r="G13" t="n">
         <v>158.000280143914</v>
       </c>
       <c r="H13" t="n">
-        <v>117.3709944649056</v>
+        <v>112.6525963310542</v>
       </c>
       <c r="I13" t="n">
         <v>105.8758987508729</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.58746707530899</v>
+        <v>76.17134403714958</v>
       </c>
       <c r="R13" t="n">
         <v>167.3026921626247</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>347.9379188376761</v>
+        <v>308.3540418758354</v>
       </c>
       <c r="C14" t="n">
-        <v>330.4769689452031</v>
+        <v>330.476968945203</v>
       </c>
       <c r="D14" t="n">
-        <v>319.8871187948785</v>
+        <v>319.8871187948784</v>
       </c>
       <c r="E14" t="n">
-        <v>347.1344472464573</v>
+        <v>347.1344472464572</v>
       </c>
       <c r="F14" t="n">
         <v>372.0801229159069</v>
       </c>
       <c r="G14" t="n">
-        <v>380.5068146893306</v>
+        <v>380.5068146893305</v>
       </c>
       <c r="H14" t="n">
-        <v>304.6788792899627</v>
+        <v>304.6788792899626</v>
       </c>
       <c r="I14" t="n">
         <v>175.6799667446014</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>75.4893181535046</v>
+        <v>115.0731951153452</v>
       </c>
       <c r="S14" t="n">
-        <v>134.6402697986003</v>
+        <v>174.2241467604408</v>
       </c>
       <c r="T14" t="n">
-        <v>153.4344479103377</v>
+        <v>188.2999267383268</v>
       </c>
       <c r="U14" t="n">
-        <v>216.549730082032</v>
+        <v>181.6842512540428</v>
       </c>
       <c r="V14" t="n">
-        <v>253.3724586824898</v>
+        <v>292.9563356443304</v>
       </c>
       <c r="W14" t="n">
         <v>314.4450458916085</v>
       </c>
       <c r="X14" t="n">
-        <v>334.9351778526645</v>
+        <v>295.3513008908239</v>
       </c>
       <c r="Y14" t="n">
-        <v>351.4420158302491</v>
+        <v>311.8581388684084</v>
       </c>
     </row>
     <row r="15">
@@ -23577,22 +23577,22 @@
         <v>137.9125761625112</v>
       </c>
       <c r="D15" t="n">
-        <v>77.78366391084509</v>
+        <v>112.6491427388342</v>
       </c>
       <c r="E15" t="n">
-        <v>83.26528066775586</v>
+        <v>87.98367880160725</v>
       </c>
       <c r="F15" t="n">
-        <v>70.6894126057388</v>
+        <v>110.2732895675794</v>
       </c>
       <c r="G15" t="n">
-        <v>62.96371737556554</v>
+        <v>62.96371737556552</v>
       </c>
       <c r="H15" t="n">
-        <v>77.43952141069195</v>
+        <v>37.85564444885134</v>
       </c>
       <c r="I15" t="n">
-        <v>54.60071002561057</v>
+        <v>54.60071002561055</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.36191132683862</v>
+        <v>65.36191132683859</v>
       </c>
       <c r="S15" t="n">
         <v>136.8872482780333</v>
@@ -23631,7 +23631,7 @@
         <v>191.1454592551703</v>
       </c>
       <c r="V15" t="n">
-        <v>198.0046643236208</v>
+        <v>198.0046643236207</v>
       </c>
       <c r="W15" t="n">
         <v>216.8990603351151</v>
@@ -23640,7 +23640,7 @@
         <v>170.977062377673</v>
       </c>
       <c r="Y15" t="n">
-        <v>170.8867729514999</v>
+        <v>131.3028959896592</v>
       </c>
     </row>
     <row r="16">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.0360573561328</v>
+        <v>105.4521803942922</v>
       </c>
       <c r="C16" t="n">
-        <v>97.58541944483417</v>
+        <v>132.4508982728233</v>
       </c>
       <c r="D16" t="n">
-        <v>113.8195501924079</v>
+        <v>113.8195501924078</v>
       </c>
       <c r="E16" t="n">
-        <v>111.6380398207647</v>
+        <v>111.6380398207646</v>
       </c>
       <c r="F16" t="n">
-        <v>110.6251251971267</v>
+        <v>71.04124823528613</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1950565326543</v>
+        <v>133.1950565326542</v>
       </c>
       <c r="H16" t="n">
         <v>127.4312496816351</v>
@@ -23674,7 +23674,7 @@
         <v>120.6545521014538</v>
       </c>
       <c r="J16" t="n">
-        <v>58.56325729086827</v>
+        <v>58.56325729086824</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.36612042588988</v>
+        <v>51.36612042588985</v>
       </c>
       <c r="R16" t="n">
-        <v>142.497468551365</v>
+        <v>107.6319897233758</v>
       </c>
       <c r="S16" t="n">
-        <v>149.6367982493272</v>
+        <v>149.6367982493271</v>
       </c>
       <c r="T16" t="n">
         <v>193.149666602477</v>
@@ -23713,10 +23713,10 @@
         <v>217.3417204980235</v>
       </c>
       <c r="W16" t="n">
-        <v>212.1431985489459</v>
+        <v>251.7270755107865</v>
       </c>
       <c r="X16" t="n">
-        <v>151.3298556013921</v>
+        <v>190.9137325632326</v>
       </c>
       <c r="Y16" t="n">
         <v>183.7887305262903</v>
@@ -23741,16 +23741,16 @@
         <v>347.1344472464573</v>
       </c>
       <c r="F17" t="n">
-        <v>300.9692182683503</v>
+        <v>372.0801229159069</v>
       </c>
       <c r="G17" t="n">
-        <v>299.7723634545933</v>
+        <v>380.5068146893306</v>
       </c>
       <c r="H17" t="n">
-        <v>223.9444280552254</v>
+        <v>304.6788792899627</v>
       </c>
       <c r="I17" t="n">
-        <v>94.94551550986417</v>
+        <v>175.6799667446014</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,25 +23777,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>115.0731951153452</v>
+        <v>43.96229046778856</v>
       </c>
       <c r="S17" t="n">
         <v>174.2241467604408</v>
       </c>
       <c r="T17" t="n">
-        <v>188.2999267383269</v>
+        <v>188.2999267383268</v>
       </c>
       <c r="U17" t="n">
         <v>216.549730082032</v>
       </c>
       <c r="V17" t="n">
-        <v>292.9563356443304</v>
+        <v>212.2218844095931</v>
       </c>
       <c r="W17" t="n">
-        <v>314.4450458916085</v>
+        <v>233.7105946568713</v>
       </c>
       <c r="X17" t="n">
-        <v>334.9351778526645</v>
+        <v>254.2007266179273</v>
       </c>
       <c r="Y17" t="n">
         <v>351.4420158302491</v>
@@ -23814,13 +23814,13 @@
         <v>137.9125761625112</v>
       </c>
       <c r="D18" t="n">
-        <v>112.6491427388343</v>
+        <v>112.6491427388342</v>
       </c>
       <c r="E18" t="n">
-        <v>42.1147063948592</v>
+        <v>122.8491576295964</v>
       </c>
       <c r="F18" t="n">
-        <v>39.16238492002283</v>
+        <v>39.16238492002277</v>
       </c>
       <c r="G18" t="n">
         <v>102.5475943374061</v>
@@ -23829,7 +23829,7 @@
         <v>77.43952141069195</v>
       </c>
       <c r="I18" t="n">
-        <v>54.60071002561057</v>
+        <v>54.60071002561056</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,25 +23859,25 @@
         <v>65.36191132683862</v>
       </c>
       <c r="S18" t="n">
-        <v>56.15279704329608</v>
+        <v>136.8872482780333</v>
       </c>
       <c r="T18" t="n">
-        <v>84.63435463427986</v>
+        <v>84.6343546342798</v>
       </c>
       <c r="U18" t="n">
         <v>191.1454592551703</v>
       </c>
       <c r="V18" t="n">
-        <v>198.0046643236208</v>
+        <v>198.0046643236207</v>
       </c>
       <c r="W18" t="n">
-        <v>216.8990603351151</v>
+        <v>136.1646091003778</v>
       </c>
       <c r="X18" t="n">
-        <v>170.977062377673</v>
+        <v>90.24261114293567</v>
       </c>
       <c r="Y18" t="n">
-        <v>170.8867729514999</v>
+        <v>170.8867729514998</v>
       </c>
     </row>
     <row r="19">
@@ -23890,28 +23890,28 @@
         <v>145.0360573561328</v>
       </c>
       <c r="C19" t="n">
-        <v>61.33999362526677</v>
+        <v>132.4508982728233</v>
       </c>
       <c r="D19" t="n">
-        <v>33.08509895767061</v>
+        <v>113.8195501924078</v>
       </c>
       <c r="E19" t="n">
-        <v>111.6380398207647</v>
+        <v>111.6380398207646</v>
       </c>
       <c r="F19" t="n">
-        <v>110.6251251971267</v>
+        <v>29.89067396238944</v>
       </c>
       <c r="G19" t="n">
-        <v>133.1950565326543</v>
+        <v>52.46060529791696</v>
       </c>
       <c r="H19" t="n">
         <v>127.4312496816351</v>
       </c>
       <c r="I19" t="n">
-        <v>39.92010086671654</v>
+        <v>120.6545521014538</v>
       </c>
       <c r="J19" t="n">
-        <v>58.56325729086827</v>
+        <v>58.56325729086826</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.36612042588988</v>
+        <v>51.36612042588987</v>
       </c>
       <c r="R19" t="n">
         <v>142.497468551365</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4862239764305</v>
+        <v>118.1097705636111</v>
       </c>
       <c r="T19" t="n">
         <v>193.149666602477</v>
@@ -23953,7 +23953,7 @@
         <v>251.7270755107865</v>
       </c>
       <c r="X19" t="n">
-        <v>190.9137325632327</v>
+        <v>110.1792813284953</v>
       </c>
       <c r="Y19" t="n">
         <v>183.7887305262903</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.970584881993</v>
+        <v>129.6851992385509</v>
       </c>
       <c r="C20" t="n">
-        <v>324.50963498952</v>
+        <v>83.49534611186084</v>
       </c>
       <c r="D20" t="n">
-        <v>313.9197848391954</v>
+        <v>72.90549596153625</v>
       </c>
       <c r="E20" t="n">
-        <v>341.1671132907742</v>
+        <v>100.1528244131151</v>
       </c>
       <c r="F20" t="n">
         <v>366.1127889602238</v>
       </c>
       <c r="G20" t="n">
-        <v>374.5394807336475</v>
+        <v>374.5394807336474</v>
       </c>
       <c r="H20" t="n">
         <v>298.7115453342795</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>169.7126327889183</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>66.53310830513828</v>
+        <v>109.1058611596621</v>
       </c>
       <c r="S20" t="n">
         <v>168.2568128047577</v>
       </c>
       <c r="T20" t="n">
-        <v>182.3325927826438</v>
+        <v>182.3325927826437</v>
       </c>
       <c r="U20" t="n">
         <v>210.5823961263489</v>
       </c>
       <c r="V20" t="n">
-        <v>286.9890016886473</v>
+        <v>286.9890016886472</v>
       </c>
       <c r="W20" t="n">
-        <v>67.46342305826636</v>
+        <v>308.4777119359254</v>
       </c>
       <c r="X20" t="n">
-        <v>87.95355501932238</v>
+        <v>328.9678438969814</v>
       </c>
       <c r="Y20" t="n">
-        <v>104.4603929969069</v>
+        <v>345.4746818745659</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.7699268683797</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>131.9452422068281</v>
       </c>
       <c r="D21" t="n">
-        <v>106.6818087831512</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>116.8818236739133</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>81.53608571765784</v>
+        <v>104.3059556118963</v>
       </c>
       <c r="G21" t="n">
-        <v>96.58026038172304</v>
+        <v>96.58026038172301</v>
       </c>
       <c r="H21" t="n">
-        <v>71.47218745500885</v>
+        <v>71.47218745500882</v>
       </c>
       <c r="I21" t="n">
-        <v>48.63337606992747</v>
+        <v>48.63337606992744</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.39457737115553</v>
+        <v>41.37866958953994</v>
       </c>
       <c r="S21" t="n">
         <v>130.9199143223502</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>159.401471913334</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>185.1781252994872</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>164.9194389958168</v>
+        <v>164.9194389958167</v>
       </c>
     </row>
     <row r="22">
@@ -24130,25 +24130,25 @@
         <v>126.4835643171402</v>
       </c>
       <c r="D22" t="n">
-        <v>107.8522162367248</v>
+        <v>107.8522162367247</v>
       </c>
       <c r="E22" t="n">
-        <v>105.6707058650816</v>
+        <v>105.6707058650815</v>
       </c>
       <c r="F22" t="n">
         <v>104.6577912414436</v>
       </c>
       <c r="G22" t="n">
-        <v>127.2277225769712</v>
+        <v>127.2277225769711</v>
       </c>
       <c r="H22" t="n">
-        <v>121.463915725952</v>
+        <v>121.4639157259519</v>
       </c>
       <c r="I22" t="n">
-        <v>114.6872181457707</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.59592333518517</v>
+        <v>52.59592333518514</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.39878647020678</v>
+        <v>45.39878647020675</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.2533412554847</v>
+        <v>86.06493158537864</v>
       </c>
       <c r="T22" t="n">
         <v>187.1823326467939</v>
@@ -24190,10 +24190,10 @@
         <v>245.7597415551034</v>
       </c>
       <c r="X22" t="n">
-        <v>150.8921673622804</v>
+        <v>184.9463986075495</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>177.8213965706072</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.9562960043339</v>
+        <v>341.9705848819929</v>
       </c>
       <c r="C23" t="n">
-        <v>83.4953461118609</v>
+        <v>324.5096349895199</v>
       </c>
       <c r="D23" t="n">
-        <v>313.9197848391954</v>
+        <v>101.6343991957532</v>
       </c>
       <c r="E23" t="n">
-        <v>341.1671132907742</v>
+        <v>341.1671132907741</v>
       </c>
       <c r="F23" t="n">
-        <v>366.1127889602238</v>
+        <v>125.0985000825647</v>
       </c>
       <c r="G23" t="n">
-        <v>374.5394807336475</v>
+        <v>133.5251918559883</v>
       </c>
       <c r="H23" t="n">
         <v>298.7115453342795</v>
@@ -24257,19 +24257,19 @@
         <v>168.2568128047577</v>
       </c>
       <c r="T23" t="n">
-        <v>182.3325927826438</v>
+        <v>182.3325927826437</v>
       </c>
       <c r="U23" t="n">
         <v>210.5823961263489</v>
       </c>
       <c r="V23" t="n">
-        <v>286.9890016886473</v>
+        <v>286.9890016886472</v>
       </c>
       <c r="W23" t="n">
         <v>308.4777119359254</v>
       </c>
       <c r="X23" t="n">
-        <v>116.6824582535394</v>
+        <v>328.9678438969814</v>
       </c>
       <c r="Y23" t="n">
         <v>104.4603929969069</v>
@@ -24282,28 +24282,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>125.7699268683797</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>106.6818087831512</v>
+        <v>106.6818087831511</v>
       </c>
       <c r="E24" t="n">
         <v>116.8818236739133</v>
       </c>
       <c r="F24" t="n">
-        <v>66.14384503505335</v>
+        <v>104.3059556118963</v>
       </c>
       <c r="G24" t="n">
-        <v>96.58026038172304</v>
+        <v>96.58026038172301</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>71.47218745500882</v>
       </c>
       <c r="I24" t="n">
-        <v>48.63337606992747</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.39457737115553</v>
+        <v>59.3945773711555</v>
       </c>
       <c r="S24" t="n">
         <v>130.9199143223502</v>
@@ -24339,7 +24339,7 @@
         <v>159.401471913334</v>
       </c>
       <c r="U24" t="n">
-        <v>185.1781252994872</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>164.9194389958168</v>
+        <v>163.3267154649998</v>
       </c>
     </row>
     <row r="25">
@@ -24367,25 +24367,25 @@
         <v>126.4835643171402</v>
       </c>
       <c r="D25" t="n">
-        <v>107.8522162367248</v>
+        <v>107.8522162367247</v>
       </c>
       <c r="E25" t="n">
-        <v>105.6707058650816</v>
+        <v>105.6707058650815</v>
       </c>
       <c r="F25" t="n">
         <v>104.6577912414436</v>
       </c>
       <c r="G25" t="n">
-        <v>127.2277225769712</v>
+        <v>127.2277225769711</v>
       </c>
       <c r="H25" t="n">
-        <v>121.463915725952</v>
+        <v>121.4639157259519</v>
       </c>
       <c r="I25" t="n">
         <v>114.6872181457707</v>
       </c>
       <c r="J25" t="n">
-        <v>52.59592333518517</v>
+        <v>52.59592333518514</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,13 +24406,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.39878647020678</v>
+        <v>45.39878647020675</v>
       </c>
       <c r="R25" t="n">
         <v>136.5301345956819</v>
       </c>
       <c r="S25" t="n">
-        <v>183.2533412554847</v>
+        <v>183.2533412554846</v>
       </c>
       <c r="T25" t="n">
         <v>187.1823326467939</v>
@@ -24421,13 +24421,13 @@
         <v>245.5557725750033</v>
       </c>
       <c r="V25" t="n">
-        <v>103.9829130084412</v>
+        <v>103.9829130084409</v>
       </c>
       <c r="W25" t="n">
-        <v>4.745452677444348</v>
+        <v>4.74545267744432</v>
       </c>
       <c r="X25" t="n">
-        <v>184.9463986075496</v>
+        <v>184.9463986075495</v>
       </c>
       <c r="Y25" t="n">
         <v>177.8213965706072</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>330.8150943935744</v>
+        <v>89.80080551591533</v>
       </c>
       <c r="C26" t="n">
         <v>313.3541445011014</v>
       </c>
       <c r="D26" t="n">
-        <v>302.7642943507768</v>
+        <v>61.75000547311771</v>
       </c>
       <c r="E26" t="n">
         <v>330.0116228023556</v>
       </c>
       <c r="F26" t="n">
-        <v>354.9572984718053</v>
+        <v>354.9572984718052</v>
       </c>
       <c r="G26" t="n">
         <v>363.3839902452289</v>
       </c>
       <c r="H26" t="n">
-        <v>287.556054845861</v>
+        <v>46.5417659682019</v>
       </c>
       <c r="I26" t="n">
-        <v>158.5571423004998</v>
+        <v>158.5571423004997</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>97.95037067124355</v>
+        <v>97.95037067124352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24497,19 +24497,19 @@
         <v>115.9930389671224</v>
       </c>
       <c r="U26" t="n">
-        <v>199.4269056379304</v>
+        <v>199.4269056379303</v>
       </c>
       <c r="V26" t="n">
-        <v>275.8335112002288</v>
+        <v>275.8335112002287</v>
       </c>
       <c r="W26" t="n">
-        <v>56.30793256984782</v>
+        <v>297.3222214475068</v>
       </c>
       <c r="X26" t="n">
-        <v>76.79806453090384</v>
+        <v>317.8123534085628</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.3049025084884</v>
+        <v>334.3191913861474</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>114.6144363799612</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>95.52631829473262</v>
+        <v>95.52631829473259</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>93.15046512347774</v>
+        <v>93.15046512347772</v>
       </c>
       <c r="G27" t="n">
-        <v>85.4247698933045</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>37.47788558150894</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.148861562782457</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>119.7644238339317</v>
       </c>
       <c r="T27" t="n">
-        <v>148.2459814249155</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>174.0226348110687</v>
       </c>
       <c r="V27" t="n">
         <v>180.8818398795191</v>
       </c>
       <c r="W27" t="n">
-        <v>199.7762358910135</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>153.8542379335713</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>139.0468741549139</v>
       </c>
     </row>
     <row r="28">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>127.9132329120312</v>
+        <v>127.9132329120311</v>
       </c>
       <c r="C28" t="n">
         <v>115.3280738287217</v>
       </c>
       <c r="D28" t="n">
-        <v>96.69672574830622</v>
+        <v>96.69672574830619</v>
       </c>
       <c r="E28" t="n">
-        <v>94.51521537666304</v>
+        <v>94.51521537666301</v>
       </c>
       <c r="F28" t="n">
-        <v>93.50230075302511</v>
+        <v>93.50230075302508</v>
       </c>
       <c r="G28" t="n">
         <v>116.0722320885526</v>
@@ -24622,7 +24622,7 @@
         <v>103.5317276573521</v>
       </c>
       <c r="J28" t="n">
-        <v>41.44043284676663</v>
+        <v>41.4404328467666</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24643,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>34.24329598178824</v>
+        <v>34.24329598178821</v>
       </c>
       <c r="R28" t="n">
-        <v>59.49259725495251</v>
+        <v>125.3746441072633</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.0978507670661</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>176.0268421583753</v>
       </c>
       <c r="U28" t="n">
-        <v>234.4002820865848</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>200.2188960539219</v>
+        <v>20.61243836275403</v>
       </c>
       <c r="W28" t="n">
-        <v>234.6042510666849</v>
+        <v>234.6042510666848</v>
       </c>
       <c r="X28" t="n">
         <v>173.790908119131</v>
       </c>
       <c r="Y28" t="n">
-        <v>166.6659060821887</v>
+        <v>166.6659060821886</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.47671900819387</v>
+        <v>268.4910078858529</v>
       </c>
       <c r="C29" t="n">
         <v>251.0300579933799</v>
@@ -24686,19 +24686,19 @@
         <v>240.4402078430553</v>
       </c>
       <c r="E29" t="n">
-        <v>267.6875362946341</v>
+        <v>26.67324741697507</v>
       </c>
       <c r="F29" t="n">
-        <v>292.6332119640838</v>
+        <v>51.61892308642473</v>
       </c>
       <c r="G29" t="n">
-        <v>66.97604361667209</v>
+        <v>301.0599037375074</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>96.23305579277827</v>
+        <v>96.23305579277829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>35.62628416352204</v>
+        <v>35.62628416352206</v>
       </c>
       <c r="S29" t="n">
-        <v>94.7772358086177</v>
+        <v>94.77723580861772</v>
       </c>
       <c r="T29" t="n">
         <v>108.8530157865037</v>
       </c>
       <c r="U29" t="n">
-        <v>137.1028191302088</v>
+        <v>137.1028191302089</v>
       </c>
       <c r="V29" t="n">
         <v>213.5094246925073</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.930428756823829</v>
       </c>
       <c r="X29" t="n">
         <v>255.4882669008414</v>
       </c>
       <c r="Y29" t="n">
-        <v>271.9951048784259</v>
+        <v>271.995104878426</v>
       </c>
     </row>
     <row r="30">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.37263924058472</v>
+        <v>34.37263924058473</v>
       </c>
       <c r="E31" t="n">
-        <v>13.19416001676569</v>
+        <v>32.19112886894155</v>
       </c>
       <c r="F31" t="n">
-        <v>31.17821424530361</v>
+        <v>31.17821424530362</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.98433872981194</v>
+        <v>47.98433872981195</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.20764114963066</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.05055759954185</v>
+        <v>63.05055759954186</v>
       </c>
       <c r="S31" t="n">
-        <v>109.7737642593446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>172.0761955788633</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>111.4668216114095</v>
+        <v>93.30159986455173</v>
       </c>
       <c r="Y31" t="n">
-        <v>104.3418195744672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,22 +24917,22 @@
         <v>268.4910078858529</v>
       </c>
       <c r="C32" t="n">
-        <v>58.58863597394034</v>
+        <v>251.0300579933799</v>
       </c>
       <c r="D32" t="n">
-        <v>240.4402078430553</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>26.67324741697507</v>
+        <v>54.82806961658835</v>
       </c>
       <c r="F32" t="n">
         <v>51.61892308642473</v>
       </c>
       <c r="G32" t="n">
-        <v>301.0599037375074</v>
+        <v>60.04561485984834</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>225.2319683381395</v>
       </c>
       <c r="I32" t="n">
         <v>96.23305579277827</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>35.62628416352204</v>
       </c>
       <c r="S32" t="n">
         <v>94.7772358086177</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.58914640430966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>53.0039873210002</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>34.37263924058472</v>
       </c>
       <c r="E34" t="n">
-        <v>32.19112886894153</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>31.17821424530361</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.74814558083112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>47.98433872981194</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>41.20764114963065</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>63.05055759954185</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>109.7737642593446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>113.7027556506539</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>41.78813576606376</v>
       </c>
       <c r="X34" t="n">
         <v>111.4668216114095</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.8278932750366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>274.458341841536</v>
       </c>
       <c r="C35" t="n">
-        <v>256.997391949063</v>
+        <v>256.9973919490631</v>
       </c>
       <c r="D35" t="n">
         <v>246.4075417987384</v>
@@ -25163,7 +25163,7 @@
         <v>273.6548702503172</v>
       </c>
       <c r="F35" t="n">
-        <v>219.2343481357796</v>
+        <v>298.6005459197669</v>
       </c>
       <c r="G35" t="n">
         <v>307.0272376931905</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.59361811920516</v>
       </c>
       <c r="S35" t="n">
         <v>100.7445697643008</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>114.8203497421868</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>143.070153085892</v>
       </c>
       <c r="V35" t="n">
-        <v>18.04634673237189</v>
+        <v>42.05685183273746</v>
       </c>
       <c r="W35" t="n">
-        <v>39.53505697964999</v>
+        <v>39.53505697965002</v>
       </c>
       <c r="X35" t="n">
-        <v>261.4556008565245</v>
+        <v>60.02518894070602</v>
       </c>
       <c r="Y35" t="n">
-        <v>277.962438834109</v>
+        <v>76.53202691829063</v>
       </c>
     </row>
     <row r="36">
@@ -25233,22 +25233,22 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>64.43299916637122</v>
       </c>
       <c r="D36" t="n">
-        <v>39.16956574269422</v>
+        <v>24.91418271440418</v>
       </c>
       <c r="E36" t="n">
-        <v>1.636068154510532</v>
+        <v>49.36958063345642</v>
       </c>
       <c r="F36" t="n">
-        <v>36.79371257143934</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>29.0680173412661</v>
+        <v>29.06801734126611</v>
       </c>
       <c r="H36" t="n">
-        <v>3.959944414551927</v>
+        <v>3.959944414551941</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>63.4076712818933</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,7 +25290,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>124.5250873274807</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.55648035999276</v>
+        <v>71.55648035999278</v>
       </c>
       <c r="C37" t="n">
-        <v>58.9713212766833</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.33997319626782</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>38.15846282462464</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>37.14554820098671</v>
+        <v>37.14554820098672</v>
       </c>
       <c r="G37" t="n">
-        <v>59.71547953651422</v>
+        <v>59.71547953651424</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>53.95167268549505</v>
       </c>
       <c r="I37" t="n">
-        <v>8.256657940538716</v>
+        <v>47.17497510531376</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.7410982150277</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.670089606337</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>178.0435295345464</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>90.3705556186932</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>117.4341555670926</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>110.3091535301503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>274.458341841536</v>
       </c>
       <c r="C38" t="n">
-        <v>55.56698003324453</v>
+        <v>256.9973919490631</v>
       </c>
       <c r="D38" t="n">
         <v>246.4075417987384</v>
@@ -25400,16 +25400,16 @@
         <v>72.22445833449876</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6005459197669</v>
+        <v>97.17013400394842</v>
       </c>
       <c r="G38" t="n">
-        <v>105.596825777372</v>
+        <v>307.0272376931905</v>
       </c>
       <c r="H38" t="n">
         <v>231.1993022938226</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>102.2003897484614</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>41.59361811920515</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>100.7445697643008</v>
+        <v>79.73863081023995</v>
       </c>
       <c r="T38" t="n">
-        <v>39.60083267519536</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>143.0701530858919</v>
+        <v>143.070153085892</v>
       </c>
       <c r="V38" t="n">
-        <v>219.4767586481904</v>
+        <v>18.04634673237192</v>
       </c>
       <c r="W38" t="n">
         <v>240.9654688954685</v>
@@ -25457,7 +25457,7 @@
         <v>261.4556008565245</v>
       </c>
       <c r="Y38" t="n">
-        <v>277.962438834109</v>
+        <v>277.9624388341091</v>
       </c>
     </row>
     <row r="39">
@@ -25473,19 +25473,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>39.16956574269423</v>
       </c>
       <c r="E39" t="n">
-        <v>49.36958063345641</v>
+        <v>49.36958063345642</v>
       </c>
       <c r="F39" t="n">
-        <v>36.79371257143934</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.06801734126611</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.959944414551941</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25524,7 +25524,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>51.58190639168723</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,10 +25533,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>16.17809146461448</v>
       </c>
       <c r="Y39" t="n">
-        <v>97.40719595535982</v>
+        <v>97.40719595535984</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>71.55648035999278</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>58.97132127668331</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.33997319626783</v>
       </c>
       <c r="E40" t="n">
-        <v>38.15846282462464</v>
+        <v>38.15846282462465</v>
       </c>
       <c r="F40" t="n">
-        <v>37.14554820098671</v>
+        <v>37.14554820098672</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>59.71547953651424</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>53.95167268549505</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>47.17497510531376</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25600,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>119.670089606337</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>178.0435295345463</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>178.2474985146465</v>
+        <v>22.87110836475776</v>
       </c>
       <c r="X40" t="n">
-        <v>106.3632019667375</v>
+        <v>117.4341555670926</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>110.3091535301503</v>
       </c>
     </row>
     <row r="41">
@@ -25628,22 +25628,22 @@
         <v>295.6045315444994</v>
       </c>
       <c r="C41" t="n">
-        <v>136.9691006561408</v>
+        <v>117.8637440091046</v>
       </c>
       <c r="D41" t="n">
-        <v>267.5537315017017</v>
+        <v>267.5537315017018</v>
       </c>
       <c r="E41" t="n">
-        <v>134.5212223103588</v>
+        <v>294.8010599532806</v>
       </c>
       <c r="F41" t="n">
-        <v>159.4668979798084</v>
+        <v>319.7467356227303</v>
       </c>
       <c r="G41" t="n">
-        <v>167.893589753232</v>
+        <v>167.8935897532321</v>
       </c>
       <c r="H41" t="n">
-        <v>252.3454919967859</v>
+        <v>252.345491996786</v>
       </c>
       <c r="I41" t="n">
         <v>123.3465794514247</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>62.73980782216849</v>
+        <v>62.7398078221685</v>
       </c>
       <c r="S41" t="n">
-        <v>121.8907594672641</v>
+        <v>121.8907594672642</v>
       </c>
       <c r="T41" t="n">
-        <v>135.9665394451501</v>
+        <v>135.9665394451502</v>
       </c>
       <c r="U41" t="n">
-        <v>164.2163427888553</v>
+        <v>23.04186179296988</v>
       </c>
       <c r="V41" t="n">
         <v>240.6229483511537</v>
       </c>
       <c r="W41" t="n">
-        <v>262.1116585984318</v>
+        <v>262.1116585984319</v>
       </c>
       <c r="X41" t="n">
-        <v>282.6017905594878</v>
+        <v>122.3219529165661</v>
       </c>
       <c r="Y41" t="n">
         <v>299.1086285370724</v>
@@ -25704,25 +25704,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79.40387353088614</v>
+        <v>79.40387353088616</v>
       </c>
       <c r="C42" t="n">
-        <v>85.57918886933454</v>
+        <v>85.57918886933456</v>
       </c>
       <c r="D42" t="n">
-        <v>60.31575544565756</v>
+        <v>60.31575544565757</v>
       </c>
       <c r="E42" t="n">
-        <v>70.51577033641975</v>
+        <v>70.51577033641976</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>57.9399022744027</v>
       </c>
       <c r="G42" t="n">
-        <v>50.21420704422944</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>25.10613411751527</v>
+        <v>25.10613411751528</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.02852403366194</v>
+        <v>13.02852403366195</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>84.55386098485664</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>113.0354185758404</v>
       </c>
       <c r="U42" t="n">
-        <v>138.8120719619936</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>145.6712770304441</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>4.285835399016577</v>
+        <v>4.285835399016634</v>
       </c>
       <c r="X42" t="n">
-        <v>33.25940902862395</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>112.4277832301915</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>92.7026700629561</v>
+        <v>92.70267006295612</v>
       </c>
       <c r="C43" t="n">
-        <v>80.11751097964664</v>
+        <v>80.11751097964665</v>
       </c>
       <c r="D43" t="n">
-        <v>61.48616289923116</v>
+        <v>61.48616289923118</v>
       </c>
       <c r="E43" t="n">
-        <v>59.30465252758798</v>
+        <v>59.30465252758799</v>
       </c>
       <c r="F43" t="n">
-        <v>58.29173790395005</v>
+        <v>58.29173790395006</v>
       </c>
       <c r="G43" t="n">
-        <v>8.008353051869122</v>
+        <v>80.86166923947758</v>
       </c>
       <c r="H43" t="n">
-        <v>75.09786238845838</v>
+        <v>75.0978623884584</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>68.3211648082771</v>
       </c>
       <c r="J43" t="n">
-        <v>6.22986999769158</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.16408125818829</v>
+        <v>90.1640812581883</v>
       </c>
       <c r="S43" t="n">
-        <v>136.887287917991</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>140.8162793093003</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>38.90988159458786</v>
+        <v>38.90988159458792</v>
       </c>
       <c r="V43" t="n">
-        <v>4.728495561924973</v>
+        <v>147.4874517910226</v>
       </c>
       <c r="W43" t="n">
-        <v>39.11385057468797</v>
+        <v>39.11385057468803</v>
       </c>
       <c r="X43" t="n">
-        <v>138.5803452700559</v>
+        <v>138.580345270056</v>
       </c>
       <c r="Y43" t="n">
         <v>131.4553432331136</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315404.4781553241</v>
+        <v>315404.4781553242</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>430752.5117562784</v>
+        <v>430752.5117562783</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>573187.1468535345</v>
+        <v>573187.1468535344</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>573187.1468535345</v>
+        <v>573187.1468535346</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>481140.5673960782</v>
+        <v>481140.567396078</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491123</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491124</v>
+        <v>798794.4302491122</v>
       </c>
       <c r="E2" t="n">
         <v>256608.302100658</v>
@@ -26326,31 +26326,31 @@
         <v>314704.8937905462</v>
       </c>
       <c r="G2" t="n">
-        <v>337437.7828992017</v>
+        <v>337437.7828992018</v>
       </c>
       <c r="H2" t="n">
-        <v>426117.9597181274</v>
+        <v>426117.9597181273</v>
       </c>
       <c r="I2" t="n">
-        <v>426117.9597181274</v>
+        <v>426117.9597181273</v>
       </c>
       <c r="J2" t="n">
         <v>453582.8446797767</v>
       </c>
       <c r="K2" t="n">
-        <v>605309.9200017717</v>
+        <v>605309.9200017718</v>
       </c>
       <c r="L2" t="n">
-        <v>605309.9200017717</v>
+        <v>605309.9200017715</v>
       </c>
       <c r="M2" t="n">
-        <v>572927.4747123077</v>
+        <v>572927.4747123076</v>
       </c>
       <c r="N2" t="n">
-        <v>572927.4747123081</v>
+        <v>572927.474712308</v>
       </c>
       <c r="O2" t="n">
-        <v>503002.2816375671</v>
+        <v>503002.281637567</v>
       </c>
       <c r="P2" t="n">
         <v>209639.4407863205</v>
@@ -26375,13 +26375,13 @@
         <v>19811.43418714828</v>
       </c>
       <c r="F3" t="n">
-        <v>19844.17888900776</v>
+        <v>19844.17888900778</v>
       </c>
       <c r="G3" t="n">
         <v>11278.75514958688</v>
       </c>
       <c r="H3" t="n">
-        <v>48018.80987914557</v>
+        <v>48018.80987914559</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>16916.95176237067</v>
       </c>
       <c r="K3" t="n">
-        <v>69703.44809518495</v>
+        <v>69703.44809518494</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="C4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="D4" t="n">
-        <v>403276.1226809025</v>
+        <v>404021.6580598142</v>
       </c>
       <c r="E4" t="n">
-        <v>79508.29058406605</v>
+        <v>80331.05825067933</v>
       </c>
       <c r="F4" t="n">
-        <v>113518.1590346467</v>
+        <v>114340.92670126</v>
       </c>
       <c r="G4" t="n">
-        <v>121150.8913629552</v>
+        <v>122042.9640651875</v>
       </c>
       <c r="H4" t="n">
-        <v>150902.4011156093</v>
+        <v>152062.9399324736</v>
       </c>
       <c r="I4" t="n">
-        <v>150902.4011156094</v>
+        <v>152062.9399324736</v>
       </c>
       <c r="J4" t="n">
-        <v>167001.058635176</v>
+        <v>168161.5974520402</v>
       </c>
       <c r="K4" t="n">
-        <v>255952.9205339231</v>
+        <v>257113.4593507872</v>
       </c>
       <c r="L4" t="n">
-        <v>255952.9205339231</v>
+        <v>257113.4593507873</v>
       </c>
       <c r="M4" t="n">
-        <v>242457.4673310864</v>
+        <v>243551.7037994687</v>
       </c>
       <c r="N4" t="n">
-        <v>242457.4673310864</v>
+        <v>243551.7037994688</v>
       </c>
       <c r="O4" t="n">
-        <v>207165.5956391146</v>
+        <v>208190.9055665645</v>
       </c>
       <c r="P4" t="n">
-        <v>58383.5376633838</v>
+        <v>59129.07304229552</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>3246.607811547475</v>
       </c>
       <c r="F5" t="n">
-        <v>5331.958155322467</v>
+        <v>5331.958155322469</v>
       </c>
       <c r="G5" t="n">
-        <v>7833.913071114584</v>
+        <v>7833.913071114586</v>
       </c>
       <c r="H5" t="n">
         <v>18080.59499812455</v>
@@ -26506,7 +26506,7 @@
         <v>21349.58203901282</v>
       </c>
       <c r="O5" t="n">
-        <v>17069.88810108228</v>
+        <v>17069.88810108227</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361890.7075682098</v>
+        <v>361145.1721892979</v>
       </c>
       <c r="C6" t="n">
-        <v>361890.7075682099</v>
+        <v>361145.1721892986</v>
       </c>
       <c r="D6" t="n">
-        <v>361890.7075682099</v>
+        <v>361145.172189298</v>
       </c>
       <c r="E6" t="n">
-        <v>154041.9695178961</v>
+        <v>153219.2018512829</v>
       </c>
       <c r="F6" t="n">
-        <v>176010.5977115693</v>
+        <v>175187.8300449559</v>
       </c>
       <c r="G6" t="n">
-        <v>197174.2233155451</v>
+        <v>196282.1506133129</v>
       </c>
       <c r="H6" t="n">
-        <v>209116.153725248</v>
+        <v>207955.6149083836</v>
       </c>
       <c r="I6" t="n">
-        <v>257134.9636043935</v>
+        <v>255974.4247875292</v>
       </c>
       <c r="J6" t="n">
-        <v>250646.4083542346</v>
+        <v>249485.8695373704</v>
       </c>
       <c r="K6" t="n">
-        <v>255395.6018160505</v>
+        <v>254235.0629991866</v>
       </c>
       <c r="L6" t="n">
-        <v>325099.0499112355</v>
+        <v>323938.5110943712</v>
       </c>
       <c r="M6" t="n">
-        <v>309120.4253422085</v>
+        <v>308026.1888738261</v>
       </c>
       <c r="N6" t="n">
-        <v>309120.4253422089</v>
+        <v>308026.1888738265</v>
       </c>
       <c r="O6" t="n">
-        <v>278766.7978973702</v>
+        <v>277741.4879699203</v>
       </c>
       <c r="P6" t="n">
-        <v>151255.9031229367</v>
+        <v>150510.367744025</v>
       </c>
     </row>
   </sheetData>
@@ -26695,19 +26695,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="G2" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="H2" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I2" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J2" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="K2" t="n">
         <v>114.2428337776276</v>
@@ -26722,7 +26722,7 @@
         <v>108.2754998219445</v>
       </c>
       <c r="O2" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26802,7 +26802,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
-        <v>80.73445123473725</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26917,13 +26917,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="F2" t="n">
-        <v>24.8052236112597</v>
+        <v>24.80522361125973</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.967333955683102</v>
+        <v>5.967333955683117</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,7 +26932,7 @@
         <v>21.14618970296334</v>
       </c>
       <c r="K2" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>41.15057427289666</v>
+        <v>41.15057427289669</v>
       </c>
       <c r="H4" t="n">
         <v>160.2798376429218</v>
@@ -27154,13 +27154,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="K2" t="n">
-        <v>24.8052236112597</v>
+        <v>24.80522361125973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.967333955683102</v>
+        <v>5.967333955683117</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>21.14618970296334</v>
       </c>
       <c r="P2" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
     </row>
     <row r="3">
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.15057427289666</v>
+        <v>41.15057427289669</v>
       </c>
       <c r="P4" t="n">
         <v>160.2798376429218</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="D14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="E14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="F14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="G14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="H14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="I14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="S14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="T14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="U14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="V14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="W14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="X14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="C15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="E15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="F15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="G15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="H15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="S15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="T15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="U15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="V15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="W15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="X15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
     </row>
     <row r="16">
@@ -28482,34 +28482,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="D16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="E16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="F16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="G16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="H16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="I16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="J16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="K16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28521,37 +28521,37 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>12.86682118528892</v>
       </c>
       <c r="P16" t="n">
-        <v>15.58826192039546</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="R16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="S16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="T16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="U16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="V16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="W16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="X16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580453</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="D17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="E17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="F17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="G17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="H17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="I17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="S17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="T17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="U17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="V17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="W17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="X17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
     </row>
     <row r="18">
@@ -28640,28 +28640,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="C18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="D18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="E18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="F18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="G18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="H18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="I18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="S18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="T18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="U18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="V18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="W18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="X18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
     </row>
     <row r="19">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="C19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="D19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="E19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="F19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="G19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="H19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="I19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="J19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="K19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="L19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="M19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="N19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="O19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="P19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="R19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="S19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="T19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="U19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="V19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="W19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="X19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.7959228258045</v>
+        <v>34.79592282580452</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="C20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="D20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="E20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="F20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="G20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="H20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="S20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="T20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="U20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="V20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="W20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="X20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
     </row>
     <row r="21">
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="C21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="D21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="E21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="F21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="G21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="H21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="S21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="T21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="U21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="V21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="W21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="X21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Y21" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="C22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="D22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="E22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="F22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="G22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="H22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="K22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="L22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="M22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="N22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="O22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="P22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="R22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="S22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="T22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="U22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="V22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="W22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="X22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="C23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="D23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="E23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="F23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="G23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="H23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="S23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="T23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="U23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="V23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="W23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="X23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
     </row>
     <row r="24">
@@ -29114,28 +29114,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="C24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="D24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="E24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="F24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="G24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="H24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="S24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="T24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="U24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="V24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="W24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="X24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Y24" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
     </row>
     <row r="25">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="C25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="D25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="E25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="F25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="G25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="H25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="I25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="J25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="K25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="L25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="M25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="N25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="O25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="P25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="R25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="S25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="T25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="U25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="V25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="W25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="X25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
       <c r="Y25" t="n">
-        <v>40.76325678148761</v>
+        <v>40.76325678148763</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="C26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="D26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="E26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="F26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="G26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="H26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="I26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29320,28 +29320,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="S26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="T26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="U26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="V26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="W26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="X26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="Y26" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
     </row>
     <row r="27">
@@ -29351,28 +29351,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="C27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="D27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="E27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="F27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="G27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="H27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="I27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="S27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="T27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="U27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="V27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="W27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="X27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="Y27" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="C28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="D28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="E28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="F28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="G28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="H28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="I28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="J28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="K28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="L28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="M28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="N28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="O28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="P28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="Q28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="R28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="S28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="T28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="U28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="V28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="W28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="X28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
       <c r="Y28" t="n">
-        <v>51.91874726990614</v>
+        <v>51.91874726990617</v>
       </c>
     </row>
     <row r="29">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="C41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="D41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="E41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="F41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="G41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="H41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="I41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="S41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="T41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="U41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="V41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="W41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="X41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
     </row>
     <row r="42">
@@ -30536,28 +30536,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="C42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="D42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="E42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="F42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="G42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="H42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="I42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30584,28 +30584,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="S42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="T42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="U42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="V42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="W42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="X42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="Y42" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="C43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="D43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="E43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="F43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="G43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="H43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="I43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="J43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="K43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="L43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="M43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="N43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="O43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="P43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="R43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="S43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="T43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="U43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="V43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="W43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="X43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.12931011898119</v>
+        <v>87.12931011898118</v>
       </c>
     </row>
     <row r="44">
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M11" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L14" t="n">
         <v>39.58387696184059</v>
@@ -35659,7 +35659,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L15" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>39.58387696184059</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>12.52643099992165</v>
+        <v>12.52643099992168</v>
       </c>
       <c r="L16" t="n">
         <v>27.59002526031614</v>
@@ -35817,10 +35817,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O16" t="n">
-        <v>24.58512791403967</v>
+        <v>37.45194909932859</v>
       </c>
       <c r="P16" t="n">
-        <v>12.86682118528895</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>80.73445123473725</v>
+        <v>77.47245320505093</v>
       </c>
       <c r="L17" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>77.47245320505091</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="O17" t="n">
-        <v>80.73445123473725</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>80.73445123473725</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>80.73445123473725</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>7.37693955522336</v>
       </c>
       <c r="O18" t="n">
-        <v>7.376939555223345</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>80.73445123473728</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12.52643099992165</v>
+        <v>12.52643099992166</v>
       </c>
       <c r="L19" t="n">
-        <v>62.38594808612064</v>
+        <v>62.38594808612066</v>
       </c>
       <c r="M19" t="n">
-        <v>74.37979978764508</v>
+        <v>74.37979978764511</v>
       </c>
       <c r="N19" t="n">
-        <v>78.92809520503309</v>
+        <v>78.92809520503312</v>
       </c>
       <c r="O19" t="n">
-        <v>59.38105073984418</v>
+        <v>59.38105073984419</v>
       </c>
       <c r="P19" t="n">
-        <v>32.07448209069799</v>
+        <v>32.07448209069801</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>18.49376495560475</v>
+        <v>18.49376495560478</v>
       </c>
       <c r="L22" t="n">
-        <v>68.35328204180374</v>
+        <v>68.35328204180377</v>
       </c>
       <c r="M22" t="n">
-        <v>80.34713374332819</v>
+        <v>80.34713374332821</v>
       </c>
       <c r="N22" t="n">
-        <v>84.89542916071619</v>
+        <v>84.89542916071622</v>
       </c>
       <c r="O22" t="n">
-        <v>65.34838469552727</v>
+        <v>65.3483846955273</v>
       </c>
       <c r="P22" t="n">
-        <v>38.04181604638109</v>
+        <v>38.04181604638112</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>18.49376495560475</v>
+        <v>18.49376495560478</v>
       </c>
       <c r="L25" t="n">
-        <v>68.35328204180374</v>
+        <v>68.35328204180377</v>
       </c>
       <c r="M25" t="n">
-        <v>80.34713374332819</v>
+        <v>80.34713374332821</v>
       </c>
       <c r="N25" t="n">
-        <v>84.89542916071619</v>
+        <v>84.89542916071622</v>
       </c>
       <c r="O25" t="n">
-        <v>65.34838469552727</v>
+        <v>65.3483846955273</v>
       </c>
       <c r="P25" t="n">
-        <v>38.04181604638109</v>
+        <v>38.04181604638112</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,22 +36753,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>29.64925544402329</v>
+        <v>29.64925544402332</v>
       </c>
       <c r="L28" t="n">
-        <v>79.50877253022227</v>
+        <v>79.5087725302223</v>
       </c>
       <c r="M28" t="n">
-        <v>91.50262423174672</v>
+        <v>91.50262423174675</v>
       </c>
       <c r="N28" t="n">
-        <v>96.05091964913473</v>
+        <v>96.05091964913476</v>
       </c>
       <c r="O28" t="n">
-        <v>76.50387518394581</v>
+        <v>76.50387518394584</v>
       </c>
       <c r="P28" t="n">
-        <v>49.19730653479963</v>
+        <v>49.19730653479966</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.88365366095486</v>
+        <v>20.88365366095485</v>
       </c>
       <c r="K31" t="n">
-        <v>91.97334195174479</v>
+        <v>91.97334195174477</v>
       </c>
       <c r="L31" t="n">
         <v>141.8328590379438</v>
@@ -37008,7 +37008,7 @@
         <v>111.5213930425211</v>
       </c>
       <c r="Q31" t="n">
-        <v>28.08079052593325</v>
+        <v>28.08079052593324</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,7 +37160,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L35" t="n">
-        <v>49.39897754653176</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="N35" t="n">
-        <v>201.4304119158185</v>
+        <v>68.93458988188699</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>201.4304119158185</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>193.2918094141692</v>
+        <v>198.0029096419404</v>
       </c>
       <c r="N36" t="n">
         <v>201.4304119158185</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.91631970527176</v>
+        <v>14.91631970527175</v>
       </c>
       <c r="K37" t="n">
-        <v>86.00600799606168</v>
+        <v>86.00600799606167</v>
       </c>
       <c r="L37" t="n">
         <v>135.8655250822607</v>
@@ -37482,7 +37482,7 @@
         <v>105.554059086838</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.11345657025015</v>
+        <v>22.11345657025014</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>159.5003022981001</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="N38" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>18.20614780712715</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>198.0029096419404</v>
+        <v>201.4304119158185</v>
       </c>
       <c r="N39" t="n">
-        <v>201.4304119158185</v>
+        <v>13.51454841633347</v>
       </c>
       <c r="O39" t="n">
         <v>201.4304119158185</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>14.91631970527176</v>
+        <v>14.91631970527175</v>
       </c>
       <c r="K40" t="n">
-        <v>86.00600799606168</v>
+        <v>86.00600799606167</v>
       </c>
       <c r="L40" t="n">
         <v>135.8655250822607</v>
@@ -37719,7 +37719,7 @@
         <v>105.554059086838</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.11345657025015</v>
+        <v>22.11345657025014</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>129.0403161092319</v>
+        <v>160.2798376429218</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>72.81603999249418</v>
       </c>
       <c r="N41" t="n">
         <v>160.2798376429218</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>117.3644105617187</v>
+      </c>
+      <c r="N42" t="n">
         <v>160.2798376429218</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>27.18008656862456</v>
       </c>
       <c r="O42" t="n">
         <v>160.2798376429218</v>
       </c>
       <c r="P42" t="n">
-        <v>160.2798376429218</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>64.85981829309834</v>
+        <v>64.85981829309833</v>
       </c>
       <c r="L43" t="n">
         <v>114.7193353792973</v>
@@ -37953,10 +37953,10 @@
         <v>111.7144380330209</v>
       </c>
       <c r="P43" t="n">
-        <v>84.40786938387468</v>
+        <v>84.40786938387467</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.9672668672868099</v>
+        <v>0.9672668672867957</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
